--- a/data/maingraphs-performance-table3.xlsx
+++ b/data/maingraphs-performance-table3.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
     <sheet name="graphs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="58">
   <si>
     <t>BENCHMARK x</t>
   </si>
@@ -128,9 +127,6 @@
     <t>PERF OVERHEAD</t>
   </si>
   <si>
-    <t>TAKEN FROM sumsum_performance_graphs.txt</t>
-  </si>
-  <si>
     <t>TABLE FOR THESIS GRAPHS</t>
   </si>
   <si>
@@ -170,9 +166,6 @@
     <t>4MARK_R11_P7_C1_A1_S1_G1_NOLW</t>
   </si>
   <si>
-    <t>4MARK_R11_P7_C1_A1_S1_G1_SAFE</t>
-  </si>
-  <si>
     <t>Optimised source</t>
   </si>
   <si>
@@ -182,16 +175,25 @@
     <t>TAKEN FROM main_summary__0BASE_R___P__C0_A0_S0_G1_NOLW_BASE</t>
   </si>
   <si>
-    <t>UPDATED 20180409</t>
+    <t>Baseline</t>
   </si>
   <si>
-    <t>TAKEN FROM sumsum_performance2.txt</t>
+    <t>TAKEN FROM sumsum_performance3.txt</t>
   </si>
   <si>
-    <t>Updated 20180409</t>
+    <t>UPDATED 20180410</t>
   </si>
   <si>
-    <t>Baseline</t>
+    <t>cyc (%C</t>
+  </si>
+  <si>
+    <t>)   cyc (%C)</t>
+  </si>
+  <si>
+    <t>)   cyc (%C</t>
+  </si>
+  <si>
+    <t>TAKEN FROM sumsum_performance_graphs3.txt</t>
   </si>
 </sst>
 </file>
@@ -277,8 +279,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -425,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -494,6 +516,16 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -562,6 +594,16 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -894,7 +936,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -934,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -989,7 +1031,7 @@
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1024,7 +1066,7 @@
         <v>885.3</v>
       </c>
       <c r="K4">
-        <v>326.89999999999998</v>
+        <v>809.7</v>
       </c>
       <c r="L4">
         <v>1018.7</v>
@@ -1036,7 +1078,7 @@
         <v>203.9</v>
       </c>
       <c r="O4">
-        <v>750</v>
+        <v>787.2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1071,7 +1113,7 @@
         <v>106.6</v>
       </c>
       <c r="K5">
-        <v>58.3</v>
+        <v>220.4</v>
       </c>
       <c r="L5">
         <v>166.5</v>
@@ -1083,7 +1125,7 @@
         <v>78.8</v>
       </c>
       <c r="O5">
-        <v>183</v>
+        <v>195.4</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>53</v>
@@ -1122,7 +1164,7 @@
         <v>110.7</v>
       </c>
       <c r="K6">
-        <v>42.2</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="L6">
         <v>218.2</v>
@@ -1134,7 +1176,7 @@
         <v>43.8</v>
       </c>
       <c r="O6">
-        <v>121.7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1169,7 +1211,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K7">
-        <v>18.600000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
         <v>38.6</v>
@@ -1181,7 +1223,7 @@
         <v>9.5</v>
       </c>
       <c r="O7">
-        <v>12.7</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1216,7 +1258,7 @@
         <v>370.6</v>
       </c>
       <c r="K8">
-        <v>183.1</v>
+        <v>234.2</v>
       </c>
       <c r="L8">
         <v>220</v>
@@ -1228,7 +1270,7 @@
         <v>65.599999999999994</v>
       </c>
       <c r="O8">
-        <v>218.4</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1263,7 +1305,7 @@
         <v>292.2</v>
       </c>
       <c r="K9">
-        <v>24.8</v>
+        <v>212.9</v>
       </c>
       <c r="L9">
         <v>375.4</v>
@@ -1275,17 +1317,17 @@
         <v>6.2</v>
       </c>
       <c r="O9">
-        <v>214.4</v>
+        <v>228.8</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>1277.0999999999999</v>
@@ -1315,7 +1357,7 @@
         <v>885.3</v>
       </c>
       <c r="K11">
-        <v>326.89999999999998</v>
+        <v>809.7</v>
       </c>
       <c r="L11">
         <v>1018.7</v>
@@ -1327,12 +1369,12 @@
         <v>203.9</v>
       </c>
       <c r="O11">
-        <v>750</v>
+        <v>787.2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>663.9</v>
@@ -1379,7 +1421,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>430.4</v>
@@ -1426,7 +1468,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>390.4</v>
@@ -1473,7 +1515,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>257.3</v>
@@ -1520,7 +1562,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>154.4</v>
@@ -1567,7 +1609,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>154.4</v>
@@ -1614,7 +1656,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>101.2</v>
@@ -1661,7 +1703,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>101.2</v>
@@ -2055,60 +2097,60 @@
         <v>15</v>
       </c>
       <c r="B31" s="4">
-        <f>B4</f>
+        <f t="shared" ref="B31:O31" si="0">B4</f>
         <v>1277.0999999999999</v>
       </c>
       <c r="C31" s="4">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>1927.2</v>
       </c>
       <c r="D31" s="4">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>1319.4</v>
       </c>
       <c r="E31" s="4">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>714.5</v>
       </c>
       <c r="F31" s="4">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>470.6</v>
       </c>
       <c r="G31" s="4">
-        <f>G4</f>
+        <f t="shared" si="0"/>
         <v>409.9</v>
       </c>
       <c r="H31" s="4">
-        <f>H4</f>
+        <f t="shared" si="0"/>
         <v>437.8</v>
       </c>
       <c r="I31" s="4">
-        <f>I4</f>
+        <f t="shared" si="0"/>
         <v>549</v>
       </c>
       <c r="J31" s="4">
-        <f>J4</f>
+        <f t="shared" si="0"/>
         <v>885.3</v>
       </c>
       <c r="K31" s="4">
-        <f>K4</f>
-        <v>326.89999999999998</v>
+        <f t="shared" si="0"/>
+        <v>809.7</v>
       </c>
       <c r="L31" s="4">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>1018.7</v>
       </c>
       <c r="M31" s="4">
-        <f>M4</f>
+        <f t="shared" si="0"/>
         <v>210.2</v>
       </c>
       <c r="N31" s="4">
-        <f>N4</f>
+        <f t="shared" si="0"/>
         <v>203.9</v>
       </c>
       <c r="O31" s="4">
-        <f>O4</f>
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>787.2</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2116,60 +2158,60 @@
         <v>16</v>
       </c>
       <c r="B32" s="4">
-        <f>B5</f>
+        <f t="shared" ref="B32:O32" si="1">B5</f>
         <v>640.1</v>
       </c>
       <c r="C32" s="4">
-        <f>C5</f>
+        <f t="shared" si="1"/>
         <v>356.7</v>
       </c>
       <c r="D32" s="4">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>233.7</v>
       </c>
       <c r="E32" s="4">
-        <f>E5</f>
+        <f t="shared" si="1"/>
         <v>197.2</v>
       </c>
       <c r="F32" s="4">
-        <f>F5</f>
+        <f t="shared" si="1"/>
         <v>115.7</v>
       </c>
       <c r="G32" s="4">
-        <f>G5</f>
+        <f t="shared" si="1"/>
         <v>70.099999999999994</v>
       </c>
       <c r="H32" s="4">
-        <f>H5</f>
+        <f t="shared" si="1"/>
         <v>66.599999999999994</v>
       </c>
       <c r="I32" s="4">
-        <f>I5</f>
+        <f t="shared" si="1"/>
         <v>207.2</v>
       </c>
       <c r="J32" s="4">
-        <f>J5</f>
+        <f t="shared" si="1"/>
         <v>106.6</v>
       </c>
       <c r="K32" s="4">
-        <f>K5</f>
-        <v>58.3</v>
+        <f t="shared" si="1"/>
+        <v>220.4</v>
       </c>
       <c r="L32" s="4">
-        <f>L5</f>
+        <f t="shared" si="1"/>
         <v>166.5</v>
       </c>
       <c r="M32" s="4">
-        <f>M5</f>
+        <f t="shared" si="1"/>
         <v>80.900000000000006</v>
       </c>
       <c r="N32" s="4">
-        <f>N5</f>
+        <f t="shared" si="1"/>
         <v>78.8</v>
       </c>
       <c r="O32" s="4">
-        <f>O5</f>
-        <v>183</v>
+        <f t="shared" si="1"/>
+        <v>195.4</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2177,60 +2219,60 @@
         <v>17</v>
       </c>
       <c r="B33" s="4">
-        <f>B6</f>
+        <f t="shared" ref="B33:O33" si="2">B6</f>
         <v>360.1</v>
       </c>
       <c r="C33" s="4">
-        <f>C6</f>
+        <f t="shared" si="2"/>
         <v>197.4</v>
       </c>
       <c r="D33" s="4">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>175.3</v>
       </c>
       <c r="E33" s="4">
-        <f>E6</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="F33" s="4">
-        <f>F6</f>
+        <f t="shared" si="2"/>
         <v>46.7</v>
       </c>
       <c r="G33" s="4">
-        <f>G6</f>
+        <f t="shared" si="2"/>
         <v>33.200000000000003</v>
       </c>
       <c r="H33" s="4">
-        <f>H6</f>
+        <f t="shared" si="2"/>
         <v>29.3</v>
       </c>
       <c r="I33" s="4">
-        <f>I6</f>
+        <f t="shared" si="2"/>
         <v>190.3</v>
       </c>
       <c r="J33" s="4">
-        <f>J6</f>
+        <f t="shared" si="2"/>
         <v>110.7</v>
       </c>
       <c r="K33" s="4">
-        <f>K6</f>
-        <v>42.2</v>
+        <f t="shared" si="2"/>
+        <v>136.80000000000001</v>
       </c>
       <c r="L33" s="4">
-        <f>L6</f>
+        <f t="shared" si="2"/>
         <v>218.2</v>
       </c>
       <c r="M33" s="4">
-        <f>M6</f>
+        <f t="shared" si="2"/>
         <v>67.599999999999994</v>
       </c>
       <c r="N33" s="4">
-        <f>N6</f>
+        <f t="shared" si="2"/>
         <v>43.8</v>
       </c>
       <c r="O33" s="4">
-        <f>O6</f>
-        <v>121.7</v>
+        <f t="shared" si="2"/>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2238,60 +2280,60 @@
         <v>18</v>
       </c>
       <c r="B34" s="4">
-        <f>B7</f>
+        <f t="shared" ref="B34:O34" si="3">B7</f>
         <v>10</v>
       </c>
       <c r="C34" s="4">
-        <f>C7</f>
+        <f t="shared" si="3"/>
         <v>41.1</v>
       </c>
       <c r="D34" s="4">
-        <f>D7</f>
+        <f t="shared" si="3"/>
         <v>8.4</v>
       </c>
       <c r="E34" s="4">
-        <f>E7</f>
+        <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
       <c r="F34" s="4">
-        <f>F7</f>
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
       <c r="G34" s="4">
-        <f>G7</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="H34" s="4">
-        <f>H7</f>
+        <f t="shared" si="3"/>
         <v>5.2</v>
       </c>
       <c r="I34" s="4">
-        <f>I7</f>
+        <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
       <c r="J34" s="4">
-        <f>J7</f>
+        <f t="shared" si="3"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="K34" s="4">
-        <f>K7</f>
-        <v>18.600000000000001</v>
+        <f t="shared" si="3"/>
+        <v>5.5</v>
       </c>
       <c r="L34" s="4">
-        <f>L7</f>
+        <f t="shared" si="3"/>
         <v>38.6</v>
       </c>
       <c r="M34" s="4">
-        <f>M7</f>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="N34" s="4">
-        <f>N7</f>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
       <c r="O34" s="4">
-        <f>O7</f>
-        <v>12.7</v>
+        <f t="shared" si="3"/>
+        <v>11.7</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2299,60 +2341,60 @@
         <v>20</v>
       </c>
       <c r="B35" s="4">
-        <f>B8</f>
+        <f t="shared" ref="B35:O35" si="4">B8</f>
         <v>266.89999999999998</v>
       </c>
       <c r="C35" s="4">
-        <f>C8</f>
+        <f t="shared" si="4"/>
         <v>331.4</v>
       </c>
       <c r="D35" s="4">
-        <f>D8</f>
+        <f t="shared" si="4"/>
         <v>902.1</v>
       </c>
       <c r="E35" s="4">
-        <f>E8</f>
+        <f t="shared" si="4"/>
         <v>82.8</v>
       </c>
       <c r="F35" s="4">
-        <f>F8</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="G35" s="4">
-        <f>G8</f>
+        <f t="shared" si="4"/>
         <v>67.8</v>
       </c>
       <c r="H35" s="4">
-        <f>H8</f>
+        <f t="shared" si="4"/>
         <v>76.8</v>
       </c>
       <c r="I35" s="4">
-        <f>I8</f>
+        <f t="shared" si="4"/>
         <v>130.1</v>
       </c>
       <c r="J35" s="4">
-        <f>J8</f>
+        <f t="shared" si="4"/>
         <v>370.6</v>
       </c>
       <c r="K35" s="4">
-        <f>K8</f>
-        <v>183.1</v>
+        <f t="shared" si="4"/>
+        <v>234.2</v>
       </c>
       <c r="L35" s="4">
-        <f>L8</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="M35" s="4">
-        <f>M8</f>
+        <f t="shared" si="4"/>
         <v>37.4</v>
       </c>
       <c r="N35" s="4">
-        <f>N8</f>
+        <f t="shared" si="4"/>
         <v>65.599999999999994</v>
       </c>
       <c r="O35" s="4">
-        <f>O8</f>
-        <v>218.4</v>
+        <f t="shared" si="4"/>
+        <v>222.3</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2360,60 +2402,60 @@
         <v>19</v>
       </c>
       <c r="B36" s="4">
-        <f>B9</f>
+        <f t="shared" ref="B36:O36" si="5">B9</f>
         <v>0</v>
       </c>
       <c r="C36" s="4">
-        <f>C9</f>
+        <f t="shared" si="5"/>
         <v>1000.6</v>
       </c>
       <c r="D36" s="4">
-        <f>D9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <f>E9</f>
+        <f t="shared" si="5"/>
         <v>361.1</v>
       </c>
       <c r="F36" s="4">
-        <f>F9</f>
+        <f t="shared" si="5"/>
         <v>200.4</v>
       </c>
       <c r="G36" s="4">
-        <f>G9</f>
+        <f t="shared" si="5"/>
         <v>238.7</v>
       </c>
       <c r="H36" s="4">
-        <f>H9</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="I36" s="4">
-        <f>I9</f>
+        <f t="shared" si="5"/>
         <v>-0.1</v>
       </c>
       <c r="J36" s="4">
-        <f>J9</f>
+        <f t="shared" si="5"/>
         <v>292.2</v>
       </c>
       <c r="K36" s="4">
-        <f>K9</f>
-        <v>24.8</v>
+        <f t="shared" si="5"/>
+        <v>212.9</v>
       </c>
       <c r="L36" s="4">
-        <f>L9</f>
+        <f t="shared" si="5"/>
         <v>375.4</v>
       </c>
       <c r="M36" s="4">
-        <f>M9</f>
+        <f t="shared" si="5"/>
         <v>27.3</v>
       </c>
       <c r="N36" s="4">
-        <f>N9</f>
+        <f t="shared" si="5"/>
         <v>6.2</v>
       </c>
       <c r="O36" s="4">
-        <f>O9</f>
-        <v>214.4</v>
+        <f t="shared" si="5"/>
+        <v>228.8</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2423,63 +2465,63 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4">
-        <f>B12-B11</f>
+        <f t="shared" ref="B38:O38" si="6">B12-B11</f>
         <v>-613.19999999999993</v>
       </c>
       <c r="C38" s="4">
-        <f>C12-C11</f>
+        <f t="shared" si="6"/>
         <v>-1234</v>
       </c>
       <c r="D38" s="4">
-        <f>D12-D11</f>
+        <f t="shared" si="6"/>
         <v>-843.60000000000014</v>
       </c>
       <c r="E38" s="4">
-        <f>E12-E11</f>
+        <f t="shared" si="6"/>
         <v>-464.1</v>
       </c>
       <c r="F38" s="4">
-        <f>F12-F11</f>
+        <f t="shared" si="6"/>
         <v>-244.20000000000002</v>
       </c>
       <c r="G38" s="4">
-        <f>G12-G11</f>
+        <f t="shared" si="6"/>
         <v>-285.59999999999997</v>
       </c>
       <c r="H38" s="4">
-        <f>H12-H11</f>
+        <f t="shared" si="6"/>
         <v>-315</v>
       </c>
       <c r="I38" s="4">
-        <f>I12-I11</f>
+        <f t="shared" si="6"/>
         <v>-56.5</v>
       </c>
       <c r="J38" s="4">
-        <f>J12-J11</f>
+        <f t="shared" si="6"/>
         <v>-612.69999999999993</v>
       </c>
       <c r="K38" s="4">
-        <f>K12-K11</f>
-        <v>49.100000000000023</v>
+        <f t="shared" si="6"/>
+        <v>-433.70000000000005</v>
       </c>
       <c r="L38" s="4">
-        <f>L12-L11</f>
+        <f t="shared" si="6"/>
         <v>-227.90000000000009</v>
       </c>
       <c r="M38" s="4">
-        <f>M12-M11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N38" s="4">
-        <f>N12-N11</f>
+        <f t="shared" si="6"/>
         <v>1.6999999999999886</v>
       </c>
       <c r="O38" s="4">
-        <f>O12-O11</f>
-        <v>-372.7</v>
+        <f t="shared" si="6"/>
+        <v>-409.90000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2487,59 +2529,59 @@
         <v>26</v>
       </c>
       <c r="B39" s="4">
-        <f>B13-B12</f>
+        <f t="shared" ref="B39:O39" si="7">B13-B12</f>
         <v>-233.5</v>
       </c>
       <c r="C39" s="4">
-        <f>C13-C12</f>
+        <f t="shared" si="7"/>
         <v>-157.70000000000005</v>
       </c>
       <c r="D39" s="4">
-        <f>D13-D12</f>
+        <f t="shared" si="7"/>
         <v>-149.40000000000003</v>
       </c>
       <c r="E39" s="4">
-        <f>E13-E12</f>
+        <f t="shared" si="7"/>
         <v>-60.300000000000011</v>
       </c>
       <c r="F39" s="4">
-        <f>F13-F12</f>
+        <f t="shared" si="7"/>
         <v>-48.200000000000017</v>
       </c>
       <c r="G39" s="4">
-        <f>G13-G12</f>
+        <f t="shared" si="7"/>
         <v>-23.099999999999994</v>
       </c>
       <c r="H39" s="4">
-        <f>H13-H12</f>
+        <f t="shared" si="7"/>
         <v>-36.5</v>
       </c>
       <c r="I39" s="4">
-        <f>I13-I12</f>
+        <f t="shared" si="7"/>
         <v>-186.89999999999998</v>
       </c>
       <c r="J39" s="4">
-        <f>J13-J12</f>
+        <f t="shared" si="7"/>
         <v>-54.200000000000017</v>
       </c>
       <c r="K39" s="4">
-        <f>K13-K12</f>
+        <f t="shared" si="7"/>
         <v>-58.800000000000011</v>
       </c>
       <c r="L39" s="4">
-        <f>L13-L12</f>
+        <f t="shared" si="7"/>
         <v>-60.199999999999932</v>
       </c>
       <c r="M39" s="4">
-        <f>M13-M12</f>
+        <f t="shared" si="7"/>
         <v>-35.199999999999989</v>
       </c>
       <c r="N39" s="4">
-        <f>N13-N12</f>
+        <f t="shared" si="7"/>
         <v>-54.5</v>
       </c>
       <c r="O39" s="4">
-        <f>O13-O12</f>
+        <f t="shared" si="7"/>
         <v>-89.100000000000023</v>
       </c>
     </row>
@@ -2548,59 +2590,59 @@
         <v>27</v>
       </c>
       <c r="B40" s="4">
-        <f>B14-B13</f>
+        <f t="shared" ref="B40:O40" si="8">B14-B13</f>
         <v>-40</v>
       </c>
       <c r="C40" s="4">
-        <f>C14-C13</f>
+        <f t="shared" si="8"/>
         <v>-56</v>
       </c>
       <c r="D40" s="4">
-        <f>D14-D13</f>
+        <f t="shared" si="8"/>
         <v>-57.299999999999955</v>
       </c>
       <c r="E40" s="4">
-        <f>E14-E13</f>
+        <f t="shared" si="8"/>
         <v>-98.399999999999991</v>
       </c>
       <c r="F40" s="4">
-        <f>F14-F13</f>
+        <f t="shared" si="8"/>
         <v>-57.999999999999986</v>
       </c>
       <c r="G40" s="4">
-        <f>G14-G13</f>
+        <f t="shared" si="8"/>
         <v>-39.800000000000004</v>
       </c>
       <c r="H40" s="4">
-        <f>H14-H13</f>
+        <f t="shared" si="8"/>
         <v>-16.200000000000003</v>
       </c>
       <c r="I40" s="4">
-        <f>I14-I13</f>
+        <f t="shared" si="8"/>
         <v>-27.800000000000011</v>
       </c>
       <c r="J40" s="4">
-        <f>J14-J13</f>
+        <f t="shared" si="8"/>
         <v>-67.700000000000017</v>
       </c>
       <c r="K40" s="4">
-        <f>K14-K13</f>
+        <f t="shared" si="8"/>
         <v>-40.699999999999989</v>
       </c>
       <c r="L40" s="4">
-        <f>L14-L13</f>
+        <f t="shared" si="8"/>
         <v>-63.100000000000023</v>
       </c>
       <c r="M40" s="4">
-        <f>M14-M13</f>
+        <f t="shared" si="8"/>
         <v>-41.400000000000006</v>
       </c>
       <c r="N40" s="4">
-        <f>N14-N13</f>
+        <f t="shared" si="8"/>
         <v>-24.199999999999989</v>
       </c>
       <c r="O40" s="4">
-        <f>O14-O13</f>
+        <f t="shared" si="8"/>
         <v>-48.599999999999994</v>
       </c>
     </row>
@@ -2609,59 +2651,59 @@
         <v>28</v>
       </c>
       <c r="B41" s="4">
-        <f>B15-B14</f>
+        <f t="shared" ref="B41:O41" si="9">B15-B14</f>
         <v>-133.09999999999997</v>
       </c>
       <c r="C41" s="4">
-        <f>C15-C14</f>
+        <f t="shared" si="9"/>
         <v>-84.899999999999977</v>
       </c>
       <c r="D41" s="4">
-        <f>D15-D14</f>
+        <f t="shared" si="9"/>
         <v>-67.400000000000034</v>
       </c>
       <c r="E41" s="4">
-        <f>E15-E14</f>
+        <f t="shared" si="9"/>
         <v>-6.7999999999999972</v>
       </c>
       <c r="F41" s="4">
-        <f>F15-F14</f>
+        <f t="shared" si="9"/>
         <v>-12.900000000000006</v>
       </c>
       <c r="G41" s="4">
-        <f>G15-G14</f>
+        <f t="shared" si="9"/>
         <v>-8.7999999999999972</v>
       </c>
       <c r="H41" s="4">
-        <f>H15-H14</f>
+        <f t="shared" si="9"/>
         <v>-10.699999999999996</v>
       </c>
       <c r="I41" s="4">
-        <f>I15-I14</f>
+        <f t="shared" si="9"/>
         <v>-51</v>
       </c>
       <c r="J41" s="4">
-        <f>J15-J14</f>
+        <f t="shared" si="9"/>
         <v>-28.799999999999983</v>
       </c>
       <c r="K41" s="4">
-        <f>K15-K14</f>
+        <f t="shared" si="9"/>
         <v>-24.5</v>
       </c>
       <c r="L41" s="4">
-        <f>L15-L14</f>
+        <f t="shared" si="9"/>
         <v>-41.5</v>
       </c>
       <c r="M41" s="4">
-        <f>M15-M14</f>
+        <f t="shared" si="9"/>
         <v>-15.399999999999991</v>
       </c>
       <c r="N41" s="4">
-        <f>N15-N14</f>
+        <f t="shared" si="9"/>
         <v>-15.5</v>
       </c>
       <c r="O41" s="4">
-        <f>O15-O14</f>
+        <f t="shared" si="9"/>
         <v>-38.5</v>
       </c>
     </row>
@@ -2670,59 +2712,59 @@
         <v>29</v>
       </c>
       <c r="B42" s="4">
-        <f>B16-B15</f>
+        <f t="shared" ref="B42:O42" si="10">B16-B15</f>
         <v>-102.9</v>
       </c>
       <c r="C42" s="4">
-        <f>C16-C15</f>
+        <f t="shared" si="10"/>
         <v>-46.800000000000011</v>
       </c>
       <c r="D42" s="4">
-        <f>D16-D15</f>
+        <f t="shared" si="10"/>
         <v>-85.399999999999991</v>
       </c>
       <c r="E42" s="4">
-        <f>E16-E15</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="F42" s="4">
-        <f>F16-F15</f>
+        <f t="shared" si="10"/>
         <v>-10.899999999999991</v>
       </c>
       <c r="G42" s="4">
-        <f>G16-G15</f>
+        <f t="shared" si="10"/>
         <v>-8</v>
       </c>
       <c r="H42" s="4">
-        <f>H16-H15</f>
+        <f t="shared" si="10"/>
         <v>-7.8999999999999986</v>
       </c>
       <c r="I42" s="4">
-        <f>I16-I15</f>
+        <f t="shared" si="10"/>
         <v>-114.9</v>
       </c>
       <c r="J42" s="4">
-        <f>J16-J15</f>
+        <f t="shared" si="10"/>
         <v>-18</v>
       </c>
       <c r="K42" s="4">
-        <f>K16-K15</f>
+        <f t="shared" si="10"/>
         <v>-40</v>
       </c>
       <c r="L42" s="4">
-        <f>L16-L15</f>
+        <f t="shared" si="10"/>
         <v>-54.299999999999955</v>
       </c>
       <c r="M42" s="4">
-        <f>M16-M15</f>
+        <f t="shared" si="10"/>
         <v>-38.200000000000003</v>
       </c>
       <c r="N42" s="4">
-        <f>N16-N15</f>
+        <f t="shared" si="10"/>
         <v>-28.600000000000009</v>
       </c>
       <c r="O42" s="4">
-        <f>O16-O15</f>
+        <f t="shared" si="10"/>
         <v>-42.400000000000006</v>
       </c>
     </row>
@@ -2731,59 +2773,59 @@
         <v>30</v>
       </c>
       <c r="B43" s="4">
-        <f>B17-B16</f>
+        <f t="shared" ref="B43:O43" si="11">B17-B16</f>
         <v>0</v>
       </c>
       <c r="C43" s="4">
-        <f>C17-C16</f>
+        <f t="shared" si="11"/>
         <v>-17.100000000000023</v>
       </c>
       <c r="D43" s="4">
-        <f>D17-D16</f>
+        <f t="shared" si="11"/>
         <v>-35.399999999999991</v>
       </c>
       <c r="E43" s="4">
-        <f>E17-E16</f>
+        <f t="shared" si="11"/>
         <v>-18.400000000000006</v>
       </c>
       <c r="F43" s="4">
-        <f>F17-F16</f>
+        <f t="shared" si="11"/>
         <v>-45.2</v>
       </c>
       <c r="G43" s="4">
-        <f>G17-G16</f>
+        <f t="shared" si="11"/>
         <v>-20.900000000000002</v>
       </c>
       <c r="H43" s="4">
-        <f>H17-H16</f>
+        <f t="shared" si="11"/>
         <v>-3.7999999999999972</v>
       </c>
       <c r="I43" s="4">
-        <f>I17-I16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <f>J17-J16</f>
+        <f t="shared" si="11"/>
         <v>-9.6000000000000085</v>
       </c>
       <c r="K43" s="4">
-        <f>K17-K16</f>
+        <f t="shared" si="11"/>
         <v>-10.099999999999994</v>
       </c>
       <c r="L43" s="4">
-        <f>L17-L16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M43" s="4">
-        <f>M17-M16</f>
+        <f t="shared" si="11"/>
         <v>-17.200000000000003</v>
       </c>
       <c r="N43" s="4">
-        <f>N17-N16</f>
+        <f t="shared" si="11"/>
         <v>-3.2999999999999972</v>
       </c>
       <c r="O43" s="4">
-        <f>O17-O16</f>
+        <f t="shared" si="11"/>
         <v>-13.899999999999977</v>
       </c>
     </row>
@@ -2792,59 +2834,59 @@
         <v>31</v>
       </c>
       <c r="B44" s="4">
-        <f>B18-B17</f>
+        <f t="shared" ref="B44:O44" si="12">B18-B17</f>
         <v>-53.2</v>
       </c>
       <c r="C44" s="4">
-        <f>C18-C17</f>
+        <f t="shared" si="12"/>
         <v>-34.899999999999977</v>
       </c>
       <c r="D44" s="4">
-        <f>D18-D17</f>
+        <f t="shared" si="12"/>
         <v>-15.700000000000003</v>
       </c>
       <c r="E44" s="4">
-        <f>E18-E17</f>
+        <f t="shared" si="12"/>
         <v>-13.899999999999999</v>
       </c>
       <c r="F44" s="4">
-        <f>F18-F17</f>
+        <f t="shared" si="12"/>
         <v>-5.5</v>
       </c>
       <c r="G44" s="4">
-        <f>G18-G17</f>
+        <f t="shared" si="12"/>
         <v>-4.1999999999999993</v>
       </c>
       <c r="H44" s="4">
-        <f>H18-H17</f>
+        <f t="shared" si="12"/>
         <v>-2.8000000000000043</v>
       </c>
       <c r="I44" s="4">
-        <f>I18-I17</f>
+        <f t="shared" si="12"/>
         <v>-36.200000000000003</v>
       </c>
       <c r="J44" s="4">
-        <f>J18-J17</f>
+        <f t="shared" si="12"/>
         <v>-9.7000000000000028</v>
       </c>
       <c r="K44" s="4">
-        <f>K18-K17</f>
+        <f t="shared" si="12"/>
         <v>-38.900000000000006</v>
       </c>
       <c r="L44" s="4">
-        <f>L18-L17</f>
+        <f t="shared" si="12"/>
         <v>-19.700000000000045</v>
       </c>
       <c r="M44" s="4">
-        <f>M18-M17</f>
+        <f t="shared" si="12"/>
         <v>-1.6999999999999957</v>
       </c>
       <c r="N44" s="4">
-        <f>N18-N17</f>
+        <f t="shared" si="12"/>
         <v>-9</v>
       </c>
       <c r="O44" s="4">
-        <f>O18-O17</f>
+        <f t="shared" si="12"/>
         <v>-18.900000000000006</v>
       </c>
     </row>
@@ -2853,120 +2895,120 @@
         <v>32</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" ref="B45:O45" si="0">B19-B18</f>
+        <f t="shared" ref="B45:O45" si="13">B19-B18</f>
         <v>0</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>-27.2</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>-36.599999999999994</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>-4.9000000000000057</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" ref="B46:O46" si="1">B20-B19</f>
+        <f t="shared" ref="B46:O46" si="14">B20-B19</f>
         <v>0</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-207.3</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-67.5</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-395.7</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-30.6</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-0.29999999999999716</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-54</v>
       </c>
     </row>
@@ -2980,59 +3022,59 @@
         <v>15</v>
       </c>
       <c r="B48" s="4">
-        <f>B22</f>
+        <f t="shared" ref="B48:O48" si="15">B22</f>
         <v>101.2</v>
       </c>
       <c r="C48" s="4">
-        <f>C22</f>
+        <f t="shared" si="15"/>
         <v>88.5</v>
       </c>
       <c r="D48" s="4">
-        <f>D22</f>
+        <f t="shared" si="15"/>
         <v>65.2</v>
       </c>
       <c r="E48" s="4">
-        <f>E22</f>
+        <f t="shared" si="15"/>
         <v>57.6</v>
       </c>
       <c r="F48" s="4">
-        <f>F22</f>
+        <f t="shared" si="15"/>
         <v>45.7</v>
       </c>
       <c r="G48" s="4">
-        <f>G22</f>
+        <f t="shared" si="15"/>
         <v>19.5</v>
       </c>
       <c r="H48" s="4">
-        <f>H22</f>
+        <f t="shared" si="15"/>
         <v>17.7</v>
       </c>
       <c r="I48" s="4">
-        <f>I22</f>
+        <f t="shared" si="15"/>
         <v>75.7</v>
       </c>
       <c r="J48" s="4">
-        <f>J22</f>
+        <f t="shared" si="15"/>
         <v>84.6</v>
       </c>
       <c r="K48" s="4">
-        <f>K22</f>
+        <f t="shared" si="15"/>
         <v>58.9</v>
       </c>
       <c r="L48" s="4">
-        <f>L22</f>
+        <f t="shared" si="15"/>
         <v>156.30000000000001</v>
       </c>
       <c r="M48" s="4">
-        <f>M22</f>
+        <f t="shared" si="15"/>
         <v>30.5</v>
       </c>
       <c r="N48" s="4">
-        <f>N22</f>
+        <f t="shared" si="15"/>
         <v>70.2</v>
       </c>
       <c r="O48" s="4">
-        <f>O22</f>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
     </row>
@@ -3041,59 +3083,59 @@
         <v>16</v>
       </c>
       <c r="B49" s="4">
-        <f>B23</f>
+        <f t="shared" ref="B49:O49" si="16">B23</f>
         <v>0</v>
       </c>
       <c r="C49" s="4">
-        <f>C23</f>
+        <f t="shared" si="16"/>
         <v>-2.8</v>
       </c>
       <c r="D49" s="4">
-        <f>D23</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <f>E23</f>
+        <f t="shared" si="16"/>
         <v>37.4</v>
       </c>
       <c r="F49" s="4">
-        <f>F23</f>
+        <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
       <c r="G49" s="4">
-        <f>G23</f>
+        <f t="shared" si="16"/>
         <v>2.9</v>
       </c>
       <c r="H49" s="4">
-        <f>H23</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="I49" s="4">
-        <f>I23</f>
+        <f t="shared" si="16"/>
         <v>-0.2</v>
       </c>
       <c r="J49" s="4">
-        <f>J23</f>
+        <f t="shared" si="16"/>
         <v>-13.7</v>
       </c>
       <c r="K49" s="4">
-        <f>K23</f>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="L49" s="4">
-        <f>L23</f>
+        <f t="shared" si="16"/>
         <v>20.399999999999999</v>
       </c>
       <c r="M49" s="4">
-        <f>M23</f>
+        <f t="shared" si="16"/>
         <v>5.6</v>
       </c>
       <c r="N49" s="4">
-        <f>N23</f>
+        <f t="shared" si="16"/>
         <v>1.7</v>
       </c>
       <c r="O49" s="4">
-        <f>O23</f>
+        <f t="shared" si="16"/>
         <v>4.3</v>
       </c>
     </row>
@@ -3102,59 +3144,59 @@
         <v>17</v>
       </c>
       <c r="B50" s="4">
-        <f>B24</f>
+        <f t="shared" ref="B50:O50" si="17">B24</f>
         <v>1</v>
       </c>
       <c r="C50" s="4">
-        <f>C24</f>
+        <f t="shared" si="17"/>
         <v>29.3</v>
       </c>
       <c r="D50" s="4">
-        <f>D24</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="E50" s="4">
-        <f>E24</f>
+        <f t="shared" si="17"/>
         <v>-2.2999999999999998</v>
       </c>
       <c r="F50" s="4">
-        <f>F24</f>
+        <f t="shared" si="17"/>
         <v>20.3</v>
       </c>
       <c r="G50" s="4">
-        <f>G24</f>
+        <f t="shared" si="17"/>
         <v>4.3</v>
       </c>
       <c r="H50" s="4">
-        <f>H24</f>
+        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="I50" s="4">
-        <f>I24</f>
+        <f t="shared" si="17"/>
         <v>4.5</v>
       </c>
       <c r="J50" s="4">
-        <f>J24</f>
+        <f t="shared" si="17"/>
         <v>54.3</v>
       </c>
       <c r="K50" s="4">
-        <f>K24</f>
+        <f t="shared" si="17"/>
         <v>17.100000000000001</v>
       </c>
       <c r="L50" s="4">
-        <f>L24</f>
+        <f t="shared" si="17"/>
         <v>72</v>
       </c>
       <c r="M50" s="4">
-        <f>M24</f>
+        <f t="shared" si="17"/>
         <v>2.7</v>
       </c>
       <c r="N50" s="4">
-        <f>N24</f>
+        <f t="shared" si="17"/>
         <v>13.5</v>
       </c>
       <c r="O50" s="4">
-        <f>O24</f>
+        <f t="shared" si="17"/>
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -3163,59 +3205,59 @@
         <v>18</v>
       </c>
       <c r="B51" s="4">
-        <f>B25</f>
+        <f t="shared" ref="B51:O51" si="18">B25</f>
         <v>10</v>
       </c>
       <c r="C51" s="4">
-        <f>C25</f>
+        <f t="shared" si="18"/>
         <v>9.4</v>
       </c>
       <c r="D51" s="4">
-        <f>D25</f>
+        <f t="shared" si="18"/>
         <v>11.8</v>
       </c>
       <c r="E51" s="4">
-        <f>E25</f>
+        <f t="shared" si="18"/>
         <v>5.6</v>
       </c>
       <c r="F51" s="4">
-        <f>F25</f>
+        <f t="shared" si="18"/>
         <v>1.5</v>
       </c>
       <c r="G51" s="4">
-        <f>G25</f>
+        <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
       <c r="H51" s="4">
-        <f>H25</f>
+        <f t="shared" si="18"/>
         <v>2.9</v>
       </c>
       <c r="I51" s="4">
-        <f>I25</f>
+        <f t="shared" si="18"/>
         <v>6.8</v>
       </c>
       <c r="J51" s="4">
-        <f>J25</f>
+        <f t="shared" si="18"/>
         <v>7.4</v>
       </c>
       <c r="K51" s="4">
-        <f>K25</f>
+        <f t="shared" si="18"/>
         <v>9.6</v>
       </c>
       <c r="L51" s="4">
-        <f>L25</f>
+        <f t="shared" si="18"/>
         <v>14.9</v>
       </c>
       <c r="M51" s="4">
-        <f>M25</f>
+        <f t="shared" si="18"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="N51" s="4">
-        <f>N25</f>
+        <f t="shared" si="18"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="O51" s="4">
-        <f>O25</f>
+        <f t="shared" si="18"/>
         <v>6.9</v>
       </c>
     </row>
@@ -3224,59 +3266,59 @@
         <v>20</v>
       </c>
       <c r="B52" s="4">
-        <f>B26</f>
+        <f t="shared" ref="B52:O52" si="19">B26</f>
         <v>90.2</v>
       </c>
       <c r="C52" s="4">
-        <f>C26</f>
+        <f t="shared" si="19"/>
         <v>52.5</v>
       </c>
       <c r="D52" s="4">
-        <f>D26</f>
+        <f t="shared" si="19"/>
         <v>26.4</v>
       </c>
       <c r="E52" s="4">
-        <f>E26</f>
+        <f t="shared" si="19"/>
         <v>16.899999999999999</v>
       </c>
       <c r="F52" s="4">
-        <f>F26</f>
+        <f t="shared" si="19"/>
         <v>23.8</v>
       </c>
       <c r="G52" s="4">
-        <f>G26</f>
+        <f t="shared" si="19"/>
         <v>12.2</v>
       </c>
       <c r="H52" s="4">
-        <f>H26</f>
+        <f t="shared" si="19"/>
         <v>10.4</v>
       </c>
       <c r="I52" s="4">
-        <f>I26</f>
+        <f t="shared" si="19"/>
         <v>64.7</v>
       </c>
       <c r="J52" s="4">
-        <f>J26</f>
+        <f t="shared" si="19"/>
         <v>35.5</v>
       </c>
       <c r="K52" s="4">
-        <f>K26</f>
+        <f t="shared" si="19"/>
         <v>28.8</v>
       </c>
       <c r="L52" s="4">
-        <f>L26</f>
+        <f t="shared" si="19"/>
         <v>35.700000000000003</v>
       </c>
       <c r="M52" s="4">
-        <f>M26</f>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="N52" s="4">
-        <f>N26</f>
+        <f t="shared" si="19"/>
         <v>46.1</v>
       </c>
       <c r="O52" s="4">
-        <f>O26</f>
+        <f t="shared" si="19"/>
         <v>35.4</v>
       </c>
     </row>
@@ -3285,59 +3327,59 @@
         <v>19</v>
       </c>
       <c r="B53" s="4">
-        <f>B27</f>
+        <f t="shared" ref="B53:O53" si="20">B27</f>
         <v>0</v>
       </c>
       <c r="C53" s="4">
-        <f>C27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <f>D27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E53" s="4">
-        <f>E27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <f>F27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f>G27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f>H27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I53" s="4">
-        <f>I27</f>
+        <f t="shared" si="20"/>
         <v>-0.1</v>
       </c>
       <c r="J53" s="4">
-        <f>J27</f>
+        <f t="shared" si="20"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K53" s="4">
-        <f>K27</f>
+        <f t="shared" si="20"/>
         <v>0.8</v>
       </c>
       <c r="L53" s="4">
-        <f>L27</f>
+        <f t="shared" si="20"/>
         <v>13.2</v>
       </c>
       <c r="M53" s="4">
-        <f>M27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N53" s="4">
-        <f>N27</f>
+        <f t="shared" si="20"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="O53" s="4">
-        <f>O27</f>
+        <f t="shared" si="20"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3356,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N113" sqref="A103:N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3367,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3393,10 +3435,10 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -3405,13 +3447,13 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3446,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -3460,7 +3502,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3495,7 +3537,7 @@
         <v>885.3</v>
       </c>
       <c r="K5">
-        <v>326.89999999999998</v>
+        <v>809.7</v>
       </c>
       <c r="L5">
         <v>1018.7</v>
@@ -3507,7 +3549,7 @@
         <v>203.9</v>
       </c>
       <c r="O5">
-        <v>750</v>
+        <v>787.2</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>53</v>
@@ -3546,7 +3588,7 @@
         <v>106.6</v>
       </c>
       <c r="K6">
-        <v>58.3</v>
+        <v>220.4</v>
       </c>
       <c r="L6">
         <v>166.5</v>
@@ -3558,7 +3600,7 @@
         <v>78.8</v>
       </c>
       <c r="O6">
-        <v>183</v>
+        <v>195.4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3593,7 +3635,7 @@
         <v>110.7</v>
       </c>
       <c r="K7">
-        <v>42.2</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="L7">
         <v>218.2</v>
@@ -3605,7 +3647,7 @@
         <v>43.8</v>
       </c>
       <c r="O7">
-        <v>121.7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -3640,7 +3682,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="K8">
-        <v>18.600000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="L8">
         <v>38.6</v>
@@ -3652,7 +3694,7 @@
         <v>9.5</v>
       </c>
       <c r="O8">
-        <v>12.7</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3687,7 +3729,7 @@
         <v>292.2</v>
       </c>
       <c r="K9">
-        <v>24.8</v>
+        <v>212.9</v>
       </c>
       <c r="L9">
         <v>375.4</v>
@@ -3699,7 +3741,7 @@
         <v>6.2</v>
       </c>
       <c r="O9">
-        <v>214.4</v>
+        <v>228.8</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3734,7 +3776,7 @@
         <v>370.6</v>
       </c>
       <c r="K10">
-        <v>183.1</v>
+        <v>234.2</v>
       </c>
       <c r="L10">
         <v>220</v>
@@ -3746,12 +3788,12 @@
         <v>65.599999999999994</v>
       </c>
       <c r="O10">
-        <v>218.4</v>
+        <v>222.3</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4038,7 +4080,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -4325,7 +4367,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -4612,7 +4654,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -4899,7 +4941,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -5186,7 +5228,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -5473,7 +5515,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -5760,7 +5802,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -6332,296 +6374,9 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75">
-        <v>247.5</v>
-      </c>
-      <c r="C75">
-        <v>153.9</v>
-      </c>
-      <c r="D75">
-        <v>65.2</v>
-      </c>
-      <c r="E75">
-        <v>68.2</v>
-      </c>
-      <c r="F75">
-        <v>60.3</v>
-      </c>
-      <c r="G75">
-        <v>22.2</v>
-      </c>
-      <c r="H75">
-        <v>30.3</v>
-      </c>
-      <c r="I75">
-        <v>128.4</v>
-      </c>
-      <c r="J75">
-        <v>118.4</v>
-      </c>
-      <c r="K75">
-        <v>76.7</v>
-      </c>
-      <c r="L75">
-        <v>266.10000000000002</v>
-      </c>
-      <c r="M75">
-        <v>33.9</v>
-      </c>
-      <c r="N75">
-        <v>88.2</v>
-      </c>
-      <c r="O75">
-        <v>104.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>-2.8</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>37.4</v>
-      </c>
-      <c r="F76">
-        <v>0.1</v>
-      </c>
-      <c r="G76">
-        <v>2.9</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-      <c r="I76">
-        <v>-0.2</v>
-      </c>
-      <c r="J76">
-        <v>-13.7</v>
-      </c>
-      <c r="K76">
-        <v>2.5</v>
-      </c>
-      <c r="L76">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="M76">
-        <v>5.6</v>
-      </c>
-      <c r="N76">
-        <v>1.7</v>
-      </c>
-      <c r="O76">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>29.3</v>
-      </c>
-      <c r="D77">
-        <v>27</v>
-      </c>
-      <c r="E77">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F77">
-        <v>20.3</v>
-      </c>
-      <c r="G77">
-        <v>4.3</v>
-      </c>
-      <c r="H77">
-        <v>2.4</v>
-      </c>
-      <c r="I77">
-        <v>4.5</v>
-      </c>
-      <c r="J77">
-        <v>54.3</v>
-      </c>
-      <c r="K77">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="L77">
-        <v>72</v>
-      </c>
-      <c r="M77">
-        <v>2.7</v>
-      </c>
-      <c r="N77">
-        <v>13.5</v>
-      </c>
-      <c r="O77">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>9.4</v>
-      </c>
-      <c r="D78">
-        <v>11.8</v>
-      </c>
-      <c r="E78">
-        <v>5.6</v>
-      </c>
-      <c r="F78">
-        <v>1.5</v>
-      </c>
-      <c r="G78">
-        <v>0.1</v>
-      </c>
-      <c r="H78">
-        <v>2.9</v>
-      </c>
-      <c r="I78">
-        <v>6.8</v>
-      </c>
-      <c r="J78">
-        <v>7.4</v>
-      </c>
-      <c r="K78">
-        <v>9.6</v>
-      </c>
-      <c r="L78">
-        <v>14.9</v>
-      </c>
-      <c r="M78">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N78">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O78">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>-0.1</v>
-      </c>
-      <c r="J79">
-        <v>1.3</v>
-      </c>
-      <c r="K79">
-        <v>0.9</v>
-      </c>
-      <c r="L79">
-        <v>14.7</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O79">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80">
-        <v>236.5</v>
-      </c>
-      <c r="C80">
-        <v>117.9</v>
-      </c>
-      <c r="D80">
-        <v>26.4</v>
-      </c>
-      <c r="E80">
-        <v>27.5</v>
-      </c>
-      <c r="F80">
-        <v>38.4</v>
-      </c>
-      <c r="G80">
-        <v>14.8</v>
-      </c>
-      <c r="H80">
-        <v>23.1</v>
-      </c>
-      <c r="I80">
-        <v>117.4</v>
-      </c>
-      <c r="J80">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="K80">
-        <v>46.6</v>
-      </c>
-      <c r="L80">
-        <v>144.1</v>
-      </c>
-      <c r="M80">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="N80">
-        <v>63.7</v>
-      </c>
-      <c r="O80">
-        <v>72.8</v>
-      </c>
-    </row>
     <row r="88" spans="1:20" s="3" customFormat="1">
       <c r="A88" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -6644,36 +6399,36 @@
         <v>20</v>
       </c>
       <c r="T90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B91">
-        <f ca="1">OFFSET($O$5,0+$T91,0)</f>
-        <v>750</v>
+        <f t="shared" ref="B91:B98" ca="1" si="0">OFFSET($O$5,0+$T91,0)</f>
+        <v>787.2</v>
       </c>
       <c r="C91">
-        <f ca="1">OFFSET($O$6,0+$T91,0)</f>
-        <v>183</v>
+        <f t="shared" ref="C91:C98" ca="1" si="1">OFFSET($O$6,0+$T91,0)</f>
+        <v>195.4</v>
       </c>
       <c r="D91">
-        <f ca="1">OFFSET($O$7,0+$T91,0)</f>
-        <v>121.7</v>
+        <f t="shared" ref="D91:D98" ca="1" si="2">OFFSET($O$7,0+$T91,0)</f>
+        <v>129</v>
       </c>
       <c r="E91">
-        <f ca="1">OFFSET($O$8,0+$T91,0)</f>
-        <v>12.7</v>
+        <f t="shared" ref="E91:E98" ca="1" si="3">OFFSET($O$8,0+$T91,0)</f>
+        <v>11.7</v>
       </c>
       <c r="F91">
-        <f ca="1">OFFSET($O$9,0+$T91,0)</f>
-        <v>214.4</v>
+        <f t="shared" ref="F91:F98" ca="1" si="4">OFFSET($O$9,0+$T91,0)</f>
+        <v>228.8</v>
       </c>
       <c r="G91">
         <f ca="1">OFFSET($O$10,0+$T91,0)</f>
-        <v>218.4</v>
+        <v>222.3</v>
       </c>
       <c r="T91">
         <v>0</v>
@@ -6681,30 +6436,30 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B92">
-        <f ca="1">OFFSET($O$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>377.3</v>
       </c>
       <c r="C92">
-        <f ca="1">OFFSET($O$6,0+$T92,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>137.80000000000001</v>
       </c>
       <c r="D92">
-        <f ca="1">OFFSET($O$7,0+$T92,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>109.3</v>
       </c>
       <c r="E92">
-        <f ca="1">OFFSET($O$8,0+$T92,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>7.4</v>
       </c>
       <c r="F92">
-        <f ca="1">OFFSET($O$9,0+$T92,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50.1</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92:G100" ca="1" si="0">OFFSET($O$10,0+$T92,0)</f>
+        <f t="shared" ref="G92:G100" ca="1" si="5">OFFSET($O$10,0+$T92,0)</f>
         <v>72.7</v>
       </c>
       <c r="T92">
@@ -6713,30 +6468,30 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B93">
-        <f ca="1">OFFSET($O$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>288.2</v>
       </c>
       <c r="C93">
-        <f ca="1">OFFSET($O$6,0+$T93,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>37.6</v>
       </c>
       <c r="D93">
-        <f ca="1">OFFSET($O$7,0+$T93,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>109.3</v>
       </c>
       <c r="E93">
-        <f ca="1">OFFSET($O$8,0+$T93,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>18.899999999999999</v>
       </c>
       <c r="F93">
-        <f ca="1">OFFSET($O$9,0+$T93,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50.1</v>
       </c>
       <c r="G93">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>72.2</v>
       </c>
       <c r="T93">
@@ -6748,27 +6503,27 @@
         <v>27</v>
       </c>
       <c r="B94">
-        <f ca="1">OFFSET($O$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>239.6</v>
       </c>
       <c r="C94">
-        <f ca="1">OFFSET($O$6,0+$T94,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.6</v>
       </c>
       <c r="D94">
-        <f ca="1">OFFSET($O$7,0+$T94,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>109.3</v>
       </c>
       <c r="E94">
-        <f ca="1">OFFSET($O$8,0+$T94,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5.5</v>
       </c>
       <c r="F94">
-        <f ca="1">OFFSET($O$9,0+$T94,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50.1</v>
       </c>
       <c r="G94">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>72.2</v>
       </c>
       <c r="T94">
@@ -6780,27 +6535,27 @@
         <v>28</v>
       </c>
       <c r="B95">
-        <f ca="1">OFFSET($O$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>201.1</v>
       </c>
       <c r="C95">
-        <f ca="1">OFFSET($O$6,0+$T95,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2.6</v>
       </c>
       <c r="D95">
-        <f ca="1">OFFSET($O$7,0+$T95,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>71.8</v>
       </c>
       <c r="E95">
-        <f ca="1">OFFSET($O$8,0+$T95,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5.2</v>
       </c>
       <c r="F95">
-        <f ca="1">OFFSET($O$9,0+$T95,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50.1</v>
       </c>
       <c r="G95">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>71.400000000000006</v>
       </c>
       <c r="T95">
@@ -6812,27 +6567,27 @@
         <v>29</v>
       </c>
       <c r="B96">
-        <f ca="1">OFFSET($O$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>158.69999999999999</v>
       </c>
       <c r="C96">
-        <f ca="1">OFFSET($O$6,0+$T96,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8.6</v>
       </c>
       <c r="D96">
-        <f ca="1">OFFSET($O$7,0+$T96,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>18.8</v>
       </c>
       <c r="E96">
-        <f ca="1">OFFSET($O$8,0+$T96,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>10.8</v>
       </c>
       <c r="F96">
-        <f ca="1">OFFSET($O$9,0+$T96,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50.1</v>
       </c>
       <c r="G96">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>70.400000000000006</v>
       </c>
       <c r="T96">
@@ -6844,27 +6599,27 @@
         <v>30</v>
       </c>
       <c r="B97">
-        <f ca="1">OFFSET($O$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>144.80000000000001</v>
       </c>
       <c r="C97">
-        <f ca="1">OFFSET($O$6,0+$T97,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="D97">
-        <f ca="1">OFFSET($O$7,0+$T97,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>18.8</v>
       </c>
       <c r="E97">
-        <f ca="1">OFFSET($O$8,0+$T97,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="F97">
-        <f ca="1">OFFSET($O$9,0+$T97,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50.1</v>
       </c>
       <c r="G97">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>56.9</v>
       </c>
       <c r="T97">
@@ -6876,27 +6631,27 @@
         <v>31</v>
       </c>
       <c r="B98">
-        <f ca="1">OFFSET($O$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>125.9</v>
       </c>
       <c r="C98">
-        <f ca="1">OFFSET($O$6,0+$T98,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>7.2</v>
       </c>
       <c r="D98">
-        <f ca="1">OFFSET($O$7,0+$T98,0)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>17.600000000000001</v>
       </c>
       <c r="E98">
-        <f ca="1">OFFSET($O$8,0+$T98,0)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>7.2</v>
       </c>
       <c r="F98">
-        <f ca="1">OFFSET($O$9,0+$T98,0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>50.1</v>
       </c>
       <c r="G98">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>43.9</v>
       </c>
       <c r="T98">
@@ -6908,27 +6663,27 @@
         <v>32</v>
       </c>
       <c r="B99">
-        <f t="shared" ref="B99:B100" ca="1" si="1">OFFSET($O$5,0+$T99,0)</f>
+        <f t="shared" ref="B99:B100" ca="1" si="6">OFFSET($O$5,0+$T99,0)</f>
         <v>121</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:C100" ca="1" si="2">OFFSET($O$6,0+$T99,0)</f>
+        <f t="shared" ref="C99:C100" ca="1" si="7">OFFSET($O$6,0+$T99,0)</f>
         <v>5.4</v>
       </c>
       <c r="D99">
-        <f t="shared" ref="D99:D100" ca="1" si="3">OFFSET($O$7,0+$T99,0)</f>
+        <f t="shared" ref="D99:D100" ca="1" si="8">OFFSET($O$7,0+$T99,0)</f>
         <v>17.600000000000001</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:E100" ca="1" si="4">OFFSET($O$8,0+$T99,0)</f>
+        <f t="shared" ref="E99:E100" ca="1" si="9">OFFSET($O$8,0+$T99,0)</f>
         <v>7</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:F100" ca="1" si="5">OFFSET($O$9,0+$T99,0)</f>
+        <f t="shared" ref="F99:F100" ca="1" si="10">OFFSET($O$9,0+$T99,0)</f>
         <v>50.1</v>
       </c>
       <c r="G99">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="5"/>
         <v>40.799999999999997</v>
       </c>
       <c r="T99">
@@ -6937,30 +6692,30 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B100">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>67</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4.3</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="8"/>
         <v>18.899999999999999</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6.9</v>
       </c>
       <c r="F100">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="G100">
-        <f t="shared" ca="1" si="0"/>
         <v>35.4</v>
       </c>
       <c r="T100">
@@ -7010,172 +6765,172 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B104">
-        <f ca="1">OFFSET(B$5,0+$T91,0)</f>
+        <f t="shared" ref="B104:N104" ca="1" si="11">OFFSET(B$5,0+$T91,0)</f>
         <v>1277.0999999999999</v>
       </c>
       <c r="C104">
-        <f ca="1">OFFSET(C$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1927.2</v>
       </c>
       <c r="D104">
-        <f ca="1">OFFSET(D$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1319.4</v>
       </c>
       <c r="E104">
-        <f ca="1">OFFSET(E$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>714.5</v>
       </c>
       <c r="F104">
-        <f ca="1">OFFSET(F$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>470.6</v>
       </c>
       <c r="G104">
-        <f ca="1">OFFSET(G$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>409.9</v>
       </c>
       <c r="H104">
-        <f ca="1">OFFSET(H$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>437.8</v>
       </c>
       <c r="I104">
-        <f ca="1">OFFSET(I$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>549</v>
       </c>
       <c r="J104">
-        <f ca="1">OFFSET(J$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>885.3</v>
       </c>
       <c r="K104">
-        <f ca="1">OFFSET(K$5,0+$T91,0)</f>
-        <v>326.89999999999998</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>809.7</v>
       </c>
       <c r="L104">
-        <f ca="1">OFFSET(L$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>1018.7</v>
       </c>
       <c r="M104">
-        <f ca="1">OFFSET(M$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>210.2</v>
       </c>
       <c r="N104">
-        <f ca="1">OFFSET(N$5,0+$T91,0)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>203.9</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B105">
-        <f ca="1">OFFSET(B$5,0+$T92,0)</f>
+        <f t="shared" ref="B105:N105" ca="1" si="12">OFFSET(B$5,0+$T92,0)</f>
         <v>663.9</v>
       </c>
       <c r="C105">
-        <f ca="1">OFFSET(C$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>693.2</v>
       </c>
       <c r="D105">
-        <f ca="1">OFFSET(D$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>475.8</v>
       </c>
       <c r="E105">
-        <f ca="1">OFFSET(E$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>250.4</v>
       </c>
       <c r="F105">
-        <f ca="1">OFFSET(F$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>226.4</v>
       </c>
       <c r="G105">
-        <f ca="1">OFFSET(G$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>124.3</v>
       </c>
       <c r="H105">
-        <f ca="1">OFFSET(H$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>122.8</v>
       </c>
       <c r="I105">
-        <f ca="1">OFFSET(I$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>492.5</v>
       </c>
       <c r="J105">
-        <f ca="1">OFFSET(J$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>272.60000000000002</v>
       </c>
       <c r="K105">
-        <f ca="1">OFFSET(K$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>376</v>
       </c>
       <c r="L105">
-        <f ca="1">OFFSET(L$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>790.8</v>
       </c>
       <c r="M105">
-        <f ca="1">OFFSET(M$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>210.2</v>
       </c>
       <c r="N105">
-        <f ca="1">OFFSET(N$5,0+$T92,0)</f>
+        <f t="shared" ca="1" si="12"/>
         <v>205.6</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B106">
-        <f ca="1">OFFSET(B$5,0+$T93,0)</f>
+        <f t="shared" ref="B106:N106" ca="1" si="13">OFFSET(B$5,0+$T93,0)</f>
         <v>430.4</v>
       </c>
       <c r="C106">
-        <f ca="1">OFFSET(C$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>535.5</v>
       </c>
       <c r="D106">
-        <f ca="1">OFFSET(D$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>326.39999999999998</v>
       </c>
       <c r="E106">
-        <f ca="1">OFFSET(E$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>190.1</v>
       </c>
       <c r="F106">
-        <f ca="1">OFFSET(F$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>178.2</v>
       </c>
       <c r="G106">
-        <f ca="1">OFFSET(G$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>101.2</v>
       </c>
       <c r="H106">
-        <f ca="1">OFFSET(H$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>86.3</v>
       </c>
       <c r="I106">
-        <f ca="1">OFFSET(I$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>305.60000000000002</v>
       </c>
       <c r="J106">
-        <f ca="1">OFFSET(J$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>218.4</v>
       </c>
       <c r="K106">
-        <f ca="1">OFFSET(K$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>317.2</v>
       </c>
       <c r="L106">
-        <f ca="1">OFFSET(L$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>730.6</v>
       </c>
       <c r="M106">
-        <f ca="1">OFFSET(M$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>175</v>
       </c>
       <c r="N106">
-        <f ca="1">OFFSET(N$5,0+$T93,0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>151.1</v>
       </c>
     </row>
@@ -7184,55 +6939,55 @@
         <v>27</v>
       </c>
       <c r="B107">
-        <f ca="1">OFFSET(B$5,0+$T94,0)</f>
+        <f t="shared" ref="B107:N107" ca="1" si="14">OFFSET(B$5,0+$T94,0)</f>
         <v>390.4</v>
       </c>
       <c r="C107">
-        <f ca="1">OFFSET(C$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>479.5</v>
       </c>
       <c r="D107">
-        <f ca="1">OFFSET(D$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>269.10000000000002</v>
       </c>
       <c r="E107">
-        <f ca="1">OFFSET(E$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>91.7</v>
       </c>
       <c r="F107">
-        <f ca="1">OFFSET(F$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>120.2</v>
       </c>
       <c r="G107">
-        <f ca="1">OFFSET(G$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>61.4</v>
       </c>
       <c r="H107">
-        <f ca="1">OFFSET(H$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>70.099999999999994</v>
       </c>
       <c r="I107">
-        <f ca="1">OFFSET(I$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>277.8</v>
       </c>
       <c r="J107">
-        <f ca="1">OFFSET(J$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>150.69999999999999</v>
       </c>
       <c r="K107">
-        <f ca="1">OFFSET(K$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>276.5</v>
       </c>
       <c r="L107">
-        <f ca="1">OFFSET(L$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>667.5</v>
       </c>
       <c r="M107">
-        <f ca="1">OFFSET(M$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>133.6</v>
       </c>
       <c r="N107">
-        <f ca="1">OFFSET(N$5,0+$T94,0)</f>
+        <f t="shared" ca="1" si="14"/>
         <v>126.9</v>
       </c>
     </row>
@@ -7241,55 +6996,55 @@
         <v>28</v>
       </c>
       <c r="B108">
-        <f ca="1">OFFSET(B$5,0+$T95,0)</f>
+        <f t="shared" ref="B108:N108" ca="1" si="15">OFFSET(B$5,0+$T95,0)</f>
         <v>257.3</v>
       </c>
       <c r="C108">
-        <f ca="1">OFFSET(C$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>394.6</v>
       </c>
       <c r="D108">
-        <f ca="1">OFFSET(D$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>201.7</v>
       </c>
       <c r="E108">
-        <f ca="1">OFFSET(E$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>84.9</v>
       </c>
       <c r="F108">
-        <f ca="1">OFFSET(F$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>107.3</v>
       </c>
       <c r="G108">
-        <f ca="1">OFFSET(G$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>52.6</v>
       </c>
       <c r="H108">
-        <f ca="1">OFFSET(H$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>59.4</v>
       </c>
       <c r="I108">
-        <f ca="1">OFFSET(I$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>226.8</v>
       </c>
       <c r="J108">
-        <f ca="1">OFFSET(J$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>121.9</v>
       </c>
       <c r="K108">
-        <f ca="1">OFFSET(K$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>252</v>
       </c>
       <c r="L108">
-        <f ca="1">OFFSET(L$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>626</v>
       </c>
       <c r="M108">
-        <f ca="1">OFFSET(M$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>118.2</v>
       </c>
       <c r="N108">
-        <f ca="1">OFFSET(N$5,0+$T95,0)</f>
+        <f t="shared" ca="1" si="15"/>
         <v>111.4</v>
       </c>
     </row>
@@ -7298,55 +7053,55 @@
         <v>29</v>
       </c>
       <c r="B109">
-        <f ca="1">OFFSET(B$5,0+$T96,0)</f>
+        <f t="shared" ref="B109:N109" ca="1" si="16">OFFSET(B$5,0+$T96,0)</f>
         <v>154.4</v>
       </c>
       <c r="C109">
-        <f ca="1">OFFSET(C$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>347.8</v>
       </c>
       <c r="D109">
-        <f ca="1">OFFSET(D$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>116.3</v>
       </c>
       <c r="E109">
-        <f ca="1">OFFSET(E$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>89.9</v>
       </c>
       <c r="F109">
-        <f ca="1">OFFSET(F$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>96.4</v>
       </c>
       <c r="G109">
-        <f ca="1">OFFSET(G$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>44.6</v>
       </c>
       <c r="H109">
-        <f ca="1">OFFSET(H$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>51.5</v>
       </c>
       <c r="I109">
-        <f ca="1">OFFSET(I$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>111.9</v>
       </c>
       <c r="J109">
-        <f ca="1">OFFSET(J$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>103.9</v>
       </c>
       <c r="K109">
-        <f ca="1">OFFSET(K$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>212</v>
       </c>
       <c r="L109">
-        <f ca="1">OFFSET(L$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>571.70000000000005</v>
       </c>
       <c r="M109">
-        <f ca="1">OFFSET(M$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>80</v>
       </c>
       <c r="N109">
-        <f ca="1">OFFSET(N$5,0+$T96,0)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>82.8</v>
       </c>
     </row>
@@ -7355,55 +7110,55 @@
         <v>30</v>
       </c>
       <c r="B110">
-        <f ca="1">OFFSET(B$5,0+$T97,0)</f>
+        <f t="shared" ref="B110:N110" ca="1" si="17">OFFSET(B$5,0+$T97,0)</f>
         <v>154.4</v>
       </c>
       <c r="C110">
-        <f ca="1">OFFSET(C$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>330.7</v>
       </c>
       <c r="D110">
-        <f ca="1">OFFSET(D$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>80.900000000000006</v>
       </c>
       <c r="E110">
-        <f ca="1">OFFSET(E$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>71.5</v>
       </c>
       <c r="F110">
-        <f ca="1">OFFSET(F$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>51.2</v>
       </c>
       <c r="G110">
-        <f ca="1">OFFSET(G$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>23.7</v>
       </c>
       <c r="H110">
-        <f ca="1">OFFSET(H$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>47.7</v>
       </c>
       <c r="I110">
-        <f ca="1">OFFSET(I$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>111.9</v>
       </c>
       <c r="J110">
-        <f ca="1">OFFSET(J$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>94.3</v>
       </c>
       <c r="K110">
-        <f ca="1">OFFSET(K$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>201.9</v>
       </c>
       <c r="L110">
-        <f ca="1">OFFSET(L$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>571.70000000000005</v>
       </c>
       <c r="M110">
-        <f ca="1">OFFSET(M$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>62.8</v>
       </c>
       <c r="N110">
-        <f ca="1">OFFSET(N$5,0+$T97,0)</f>
+        <f t="shared" ca="1" si="17"/>
         <v>79.5</v>
       </c>
     </row>
@@ -7412,55 +7167,55 @@
         <v>31</v>
       </c>
       <c r="B111">
-        <f ca="1">OFFSET(B$5,0+$T98,0)</f>
+        <f t="shared" ref="B111:N111" ca="1" si="18">OFFSET(B$5,0+$T98,0)</f>
         <v>101.2</v>
       </c>
       <c r="C111">
-        <f ca="1">OFFSET(C$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>295.8</v>
       </c>
       <c r="D111">
-        <f ca="1">OFFSET(D$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>65.2</v>
       </c>
       <c r="E111">
-        <f ca="1">OFFSET(E$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>57.6</v>
       </c>
       <c r="F111">
-        <f ca="1">OFFSET(F$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>45.7</v>
       </c>
       <c r="G111">
-        <f ca="1">OFFSET(G$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>19.5</v>
       </c>
       <c r="H111">
-        <f ca="1">OFFSET(H$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>44.9</v>
       </c>
       <c r="I111">
-        <f ca="1">OFFSET(I$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>75.7</v>
       </c>
       <c r="J111">
-        <f ca="1">OFFSET(J$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>84.6</v>
       </c>
       <c r="K111">
-        <f ca="1">OFFSET(K$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>163</v>
       </c>
       <c r="L111">
-        <f ca="1">OFFSET(L$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>552</v>
       </c>
       <c r="M111">
-        <f ca="1">OFFSET(M$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>61.1</v>
       </c>
       <c r="N111">
-        <f ca="1">OFFSET(N$5,0+$T98,0)</f>
+        <f t="shared" ca="1" si="18"/>
         <v>70.5</v>
       </c>
     </row>
@@ -7469,3387 +7224,113 @@
         <v>32</v>
       </c>
       <c r="B112">
-        <f t="shared" ref="B112:N112" ca="1" si="6">OFFSET(B$5,0+$T99,0)</f>
+        <f t="shared" ref="B112:N112" ca="1" si="19">OFFSET(B$5,0+$T99,0)</f>
         <v>101.2</v>
       </c>
       <c r="C112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>295.8</v>
       </c>
       <c r="D112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>65.2</v>
       </c>
       <c r="E112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>57.6</v>
       </c>
       <c r="F112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>45.7</v>
       </c>
       <c r="G112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>19.5</v>
       </c>
       <c r="H112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>17.7</v>
       </c>
       <c r="I112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>75.7</v>
       </c>
       <c r="J112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>84.6</v>
       </c>
       <c r="K112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>126.4</v>
       </c>
       <c r="L112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>552</v>
       </c>
       <c r="M112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>61.1</v>
       </c>
       <c r="N112">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="19"/>
         <v>70.5</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B113">
-        <f t="shared" ref="B113:N113" ca="1" si="7">OFFSET(B$5,0+$T100,0)</f>
+        <f t="shared" ref="B113:N113" ca="1" si="20">OFFSET(B$5,0+$T100,0)</f>
         <v>101.2</v>
       </c>
       <c r="C113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>88.5</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>65.2</v>
       </c>
       <c r="E113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>57.6</v>
       </c>
       <c r="F113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>45.7</v>
       </c>
       <c r="G113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>19.5</v>
       </c>
       <c r="H113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>17.7</v>
       </c>
       <c r="I113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>75.7</v>
       </c>
       <c r="J113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>84.6</v>
       </c>
       <c r="K113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>58.9</v>
       </c>
       <c r="L113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>156.30000000000001</v>
       </c>
       <c r="M113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>30.5</v>
       </c>
       <c r="N113">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="20"/>
         <v>70.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:O81"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="50.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1277.0999999999999</v>
-      </c>
-      <c r="C6">
-        <v>1927.2</v>
-      </c>
-      <c r="D6">
-        <v>1319.4</v>
-      </c>
-      <c r="E6">
-        <v>714.5</v>
-      </c>
-      <c r="F6">
-        <v>470.6</v>
-      </c>
-      <c r="G6">
-        <v>409.9</v>
-      </c>
-      <c r="H6">
-        <v>437.8</v>
-      </c>
-      <c r="I6">
-        <v>549</v>
-      </c>
-      <c r="J6">
-        <v>885.3</v>
-      </c>
-      <c r="K6">
-        <v>326.89999999999998</v>
-      </c>
-      <c r="L6">
-        <v>1018.7</v>
-      </c>
-      <c r="M6">
-        <v>210.2</v>
-      </c>
-      <c r="N6">
-        <v>203.9</v>
-      </c>
-      <c r="O6">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>640.1</v>
-      </c>
-      <c r="C7">
-        <v>356.7</v>
-      </c>
-      <c r="D7">
-        <v>233.7</v>
-      </c>
-      <c r="E7">
-        <v>197.2</v>
-      </c>
-      <c r="F7">
-        <v>115.7</v>
-      </c>
-      <c r="G7">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="H7">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="I7">
-        <v>207.2</v>
-      </c>
-      <c r="J7">
-        <v>106.6</v>
-      </c>
-      <c r="K7">
-        <v>58.3</v>
-      </c>
-      <c r="L7">
-        <v>166.5</v>
-      </c>
-      <c r="M7">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="N7">
-        <v>78.8</v>
-      </c>
-      <c r="O7">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>360.1</v>
-      </c>
-      <c r="C8">
-        <v>197.4</v>
-      </c>
-      <c r="D8">
-        <v>175.3</v>
-      </c>
-      <c r="E8">
-        <v>67</v>
-      </c>
-      <c r="F8">
-        <v>46.7</v>
-      </c>
-      <c r="G8">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="H8">
-        <v>29.3</v>
-      </c>
-      <c r="I8">
-        <v>190.3</v>
-      </c>
-      <c r="J8">
-        <v>110.7</v>
-      </c>
-      <c r="K8">
-        <v>42.2</v>
-      </c>
-      <c r="L8">
-        <v>218.2</v>
-      </c>
-      <c r="M8">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="N8">
-        <v>43.8</v>
-      </c>
-      <c r="O8">
-        <v>121.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>41.1</v>
-      </c>
-      <c r="D9">
-        <v>8.4</v>
-      </c>
-      <c r="E9">
-        <v>6.6</v>
-      </c>
-      <c r="F9">
-        <v>3.6</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>5.2</v>
-      </c>
-      <c r="I9">
-        <v>21.5</v>
-      </c>
-      <c r="J9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K9">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="L9">
-        <v>38.6</v>
-      </c>
-      <c r="M9">
-        <v>-3</v>
-      </c>
-      <c r="N9">
-        <v>9.5</v>
-      </c>
-      <c r="O9">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1000.6</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>361.1</v>
-      </c>
-      <c r="F10">
-        <v>200.4</v>
-      </c>
-      <c r="G10">
-        <v>238.7</v>
-      </c>
-      <c r="H10">
-        <v>260</v>
-      </c>
-      <c r="I10">
-        <v>-0.1</v>
-      </c>
-      <c r="J10">
-        <v>292.2</v>
-      </c>
-      <c r="K10">
-        <v>24.8</v>
-      </c>
-      <c r="L10">
-        <v>375.4</v>
-      </c>
-      <c r="M10">
-        <v>27.3</v>
-      </c>
-      <c r="N10">
-        <v>6.2</v>
-      </c>
-      <c r="O10">
-        <v>214.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="C11">
-        <v>331.4</v>
-      </c>
-      <c r="D11">
-        <v>902.1</v>
-      </c>
-      <c r="E11">
-        <v>82.8</v>
-      </c>
-      <c r="F11">
-        <v>104</v>
-      </c>
-      <c r="G11">
-        <v>67.8</v>
-      </c>
-      <c r="H11">
-        <v>76.8</v>
-      </c>
-      <c r="I11">
-        <v>130.1</v>
-      </c>
-      <c r="J11">
-        <v>370.6</v>
-      </c>
-      <c r="K11">
-        <v>183.1</v>
-      </c>
-      <c r="L11">
-        <v>220</v>
-      </c>
-      <c r="M11">
-        <v>37.4</v>
-      </c>
-      <c r="N11">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="O11">
-        <v>218.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>663.9</v>
-      </c>
-      <c r="C13">
-        <v>693.2</v>
-      </c>
-      <c r="D13">
-        <v>475.8</v>
-      </c>
-      <c r="E13">
-        <v>250.4</v>
-      </c>
-      <c r="F13">
-        <v>226.4</v>
-      </c>
-      <c r="G13">
-        <v>124.3</v>
-      </c>
-      <c r="H13">
-        <v>122.8</v>
-      </c>
-      <c r="I13">
-        <v>492.5</v>
-      </c>
-      <c r="J13">
-        <v>272.60000000000002</v>
-      </c>
-      <c r="K13">
-        <v>376</v>
-      </c>
-      <c r="L13">
-        <v>790.8</v>
-      </c>
-      <c r="M13">
-        <v>210.2</v>
-      </c>
-      <c r="N13">
-        <v>205.6</v>
-      </c>
-      <c r="O13">
-        <v>377.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>266.89999999999998</v>
-      </c>
-      <c r="C14">
-        <v>200.8</v>
-      </c>
-      <c r="D14">
-        <v>202.2</v>
-      </c>
-      <c r="E14">
-        <v>166.4</v>
-      </c>
-      <c r="F14">
-        <v>105.3</v>
-      </c>
-      <c r="G14">
-        <v>61.9</v>
-      </c>
-      <c r="H14">
-        <v>57.2</v>
-      </c>
-      <c r="I14">
-        <v>205.5</v>
-      </c>
-      <c r="J14">
-        <v>105.6</v>
-      </c>
-      <c r="K14">
-        <v>123.8</v>
-      </c>
-      <c r="L14">
-        <v>137.69999999999999</v>
-      </c>
-      <c r="M14">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="N14">
-        <v>77.5</v>
-      </c>
-      <c r="O14">
-        <v>137.80000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>240.3</v>
-      </c>
-      <c r="C15">
-        <v>177.5</v>
-      </c>
-      <c r="D15">
-        <v>191</v>
-      </c>
-      <c r="E15">
-        <v>42.5</v>
-      </c>
-      <c r="F15">
-        <v>43.9</v>
-      </c>
-      <c r="G15">
-        <v>28.5</v>
-      </c>
-      <c r="H15">
-        <v>25.2</v>
-      </c>
-      <c r="I15">
-        <v>190.4</v>
-      </c>
-      <c r="J15">
-        <v>111.7</v>
-      </c>
-      <c r="K15">
-        <v>89.2</v>
-      </c>
-      <c r="L15">
-        <v>165.3</v>
-      </c>
-      <c r="M15">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="N15">
-        <v>47.6</v>
-      </c>
-      <c r="O15">
-        <v>109.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>23.3</v>
-      </c>
-      <c r="C16">
-        <v>14.8</v>
-      </c>
-      <c r="D16">
-        <v>4.5</v>
-      </c>
-      <c r="E16">
-        <v>3.9</v>
-      </c>
-      <c r="F16">
-        <v>2.6</v>
-      </c>
-      <c r="G16">
-        <v>-1.2</v>
-      </c>
-      <c r="H16">
-        <v>4.2</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
-      <c r="J16">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K16">
-        <v>5.3</v>
-      </c>
-      <c r="L16">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="M16">
-        <v>-3</v>
-      </c>
-      <c r="N16">
-        <v>10.9</v>
-      </c>
-      <c r="O16">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>181.7</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>-0.1</v>
-      </c>
-      <c r="J17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K17">
-        <v>60</v>
-      </c>
-      <c r="L17">
-        <v>375.4</v>
-      </c>
-      <c r="M17">
-        <v>27.3</v>
-      </c>
-      <c r="N17">
-        <v>6.2</v>
-      </c>
-      <c r="O17">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>133.5</v>
-      </c>
-      <c r="C18">
-        <v>118.4</v>
-      </c>
-      <c r="D18">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E18">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F18">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G18">
-        <v>35.1</v>
-      </c>
-      <c r="H18">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I18">
-        <v>88.8</v>
-      </c>
-      <c r="J18">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>97.7</v>
-      </c>
-      <c r="L18">
-        <v>94.8</v>
-      </c>
-      <c r="M18">
-        <v>37.4</v>
-      </c>
-      <c r="N18">
-        <v>63.4</v>
-      </c>
-      <c r="O18">
-        <v>72.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>430.4</v>
-      </c>
-      <c r="C20">
-        <v>535.5</v>
-      </c>
-      <c r="D20">
-        <v>326.39999999999998</v>
-      </c>
-      <c r="E20">
-        <v>190.1</v>
-      </c>
-      <c r="F20">
-        <v>178.2</v>
-      </c>
-      <c r="G20">
-        <v>101.2</v>
-      </c>
-      <c r="H20">
-        <v>86.3</v>
-      </c>
-      <c r="I20">
-        <v>305.60000000000002</v>
-      </c>
-      <c r="J20">
-        <v>218.4</v>
-      </c>
-      <c r="K20">
-        <v>317.2</v>
-      </c>
-      <c r="L20">
-        <v>730.6</v>
-      </c>
-      <c r="M20">
-        <v>175</v>
-      </c>
-      <c r="N20">
-        <v>151.1</v>
-      </c>
-      <c r="O20">
-        <v>288.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>22.2</v>
-      </c>
-      <c r="D21">
-        <v>31.5</v>
-      </c>
-      <c r="E21">
-        <v>100.2</v>
-      </c>
-      <c r="F21">
-        <v>51.4</v>
-      </c>
-      <c r="G21">
-        <v>36.4</v>
-      </c>
-      <c r="H21">
-        <v>16</v>
-      </c>
-      <c r="I21">
-        <v>0.7</v>
-      </c>
-      <c r="J21">
-        <v>45.1</v>
-      </c>
-      <c r="K21">
-        <v>57.8</v>
-      </c>
-      <c r="L21">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="M21">
-        <v>42.7</v>
-      </c>
-      <c r="N21">
-        <v>16.3</v>
-      </c>
-      <c r="O21">
-        <v>37.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>240.3</v>
-      </c>
-      <c r="C22">
-        <v>177.5</v>
-      </c>
-      <c r="D22">
-        <v>191</v>
-      </c>
-      <c r="E22">
-        <v>42.5</v>
-      </c>
-      <c r="F22">
-        <v>43.9</v>
-      </c>
-      <c r="G22">
-        <v>28.5</v>
-      </c>
-      <c r="H22">
-        <v>25.2</v>
-      </c>
-      <c r="I22">
-        <v>190.4</v>
-      </c>
-      <c r="J22">
-        <v>111.7</v>
-      </c>
-      <c r="K22">
-        <v>89.2</v>
-      </c>
-      <c r="L22">
-        <v>165.3</v>
-      </c>
-      <c r="M22">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="N22">
-        <v>47.6</v>
-      </c>
-      <c r="O22">
-        <v>109.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>56.6</v>
-      </c>
-      <c r="C23">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="D23">
-        <v>25.8</v>
-      </c>
-      <c r="E23">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F23">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G23">
-        <v>1.3</v>
-      </c>
-      <c r="H23">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I23">
-        <v>29.3</v>
-      </c>
-      <c r="J23">
-        <v>11.4</v>
-      </c>
-      <c r="K23">
-        <v>12.6</v>
-      </c>
-      <c r="L23">
-        <v>26.1</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>18.3</v>
-      </c>
-      <c r="O23">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>181.7</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>-0.1</v>
-      </c>
-      <c r="J24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K24">
-        <v>60</v>
-      </c>
-      <c r="L24">
-        <v>375.4</v>
-      </c>
-      <c r="M24">
-        <v>27.3</v>
-      </c>
-      <c r="N24">
-        <v>6.2</v>
-      </c>
-      <c r="O24">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>133.5</v>
-      </c>
-      <c r="C25">
-        <v>117</v>
-      </c>
-      <c r="D25">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E25">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F25">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G25">
-        <v>35.1</v>
-      </c>
-      <c r="H25">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I25">
-        <v>85.3</v>
-      </c>
-      <c r="J25">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>97.7</v>
-      </c>
-      <c r="L25">
-        <v>94.8</v>
-      </c>
-      <c r="M25">
-        <v>37.4</v>
-      </c>
-      <c r="N25">
-        <v>62.8</v>
-      </c>
-      <c r="O25">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>390.4</v>
-      </c>
-      <c r="C27">
-        <v>479.5</v>
-      </c>
-      <c r="D27">
-        <v>269.10000000000002</v>
-      </c>
-      <c r="E27">
-        <v>91.7</v>
-      </c>
-      <c r="F27">
-        <v>120.2</v>
-      </c>
-      <c r="G27">
-        <v>61.4</v>
-      </c>
-      <c r="H27">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="I27">
-        <v>277.8</v>
-      </c>
-      <c r="J27">
-        <v>150.69999999999999</v>
-      </c>
-      <c r="K27">
-        <v>276.5</v>
-      </c>
-      <c r="L27">
-        <v>667.5</v>
-      </c>
-      <c r="M27">
-        <v>133.6</v>
-      </c>
-      <c r="N27">
-        <v>126.9</v>
-      </c>
-      <c r="O27">
-        <v>239.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>-5.6</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>7.6</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>-0.2</v>
-      </c>
-      <c r="J28">
-        <v>-13.7</v>
-      </c>
-      <c r="K28">
-        <v>21.7</v>
-      </c>
-      <c r="L28">
-        <v>13</v>
-      </c>
-      <c r="M28">
-        <v>6.4</v>
-      </c>
-      <c r="N28">
-        <v>0.6</v>
-      </c>
-      <c r="O28">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>240.3</v>
-      </c>
-      <c r="C29">
-        <v>177.5</v>
-      </c>
-      <c r="D29">
-        <v>191</v>
-      </c>
-      <c r="E29">
-        <v>42.5</v>
-      </c>
-      <c r="F29">
-        <v>43.9</v>
-      </c>
-      <c r="G29">
-        <v>28.5</v>
-      </c>
-      <c r="H29">
-        <v>25.2</v>
-      </c>
-      <c r="I29">
-        <v>190.4</v>
-      </c>
-      <c r="J29">
-        <v>111.7</v>
-      </c>
-      <c r="K29">
-        <v>89.2</v>
-      </c>
-      <c r="L29">
-        <v>165.3</v>
-      </c>
-      <c r="M29">
-        <v>67.599999999999994</v>
-      </c>
-      <c r="N29">
-        <v>47.6</v>
-      </c>
-      <c r="O29">
-        <v>109.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C30">
-        <v>8.9</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>3.8</v>
-      </c>
-      <c r="F30">
-        <v>1.7</v>
-      </c>
-      <c r="G30">
-        <v>-2.1</v>
-      </c>
-      <c r="H30">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I30">
-        <v>2.4</v>
-      </c>
-      <c r="J30">
-        <v>2.5</v>
-      </c>
-      <c r="K30">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L30">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="M30">
-        <v>-4.3</v>
-      </c>
-      <c r="N30">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="O30">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>181.7</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>-0.1</v>
-      </c>
-      <c r="J31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K31">
-        <v>60</v>
-      </c>
-      <c r="L31">
-        <v>375.4</v>
-      </c>
-      <c r="M31">
-        <v>27.3</v>
-      </c>
-      <c r="N31">
-        <v>6.2</v>
-      </c>
-      <c r="O31">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <v>133.5</v>
-      </c>
-      <c r="C32">
-        <v>117</v>
-      </c>
-      <c r="D32">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E32">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F32">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G32">
-        <v>35.1</v>
-      </c>
-      <c r="H32">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I32">
-        <v>85.3</v>
-      </c>
-      <c r="J32">
-        <v>49</v>
-      </c>
-      <c r="K32">
-        <v>97.4</v>
-      </c>
-      <c r="L32">
-        <v>94.8</v>
-      </c>
-      <c r="M32">
-        <v>36.6</v>
-      </c>
-      <c r="N32">
-        <v>62.7</v>
-      </c>
-      <c r="O32">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34">
-        <v>257.3</v>
-      </c>
-      <c r="C34">
-        <v>394.6</v>
-      </c>
-      <c r="D34">
-        <v>201.7</v>
-      </c>
-      <c r="E34">
-        <v>84.9</v>
-      </c>
-      <c r="F34">
-        <v>107.3</v>
-      </c>
-      <c r="G34">
-        <v>52.6</v>
-      </c>
-      <c r="H34">
-        <v>59.4</v>
-      </c>
-      <c r="I34">
-        <v>226.8</v>
-      </c>
-      <c r="J34">
-        <v>121.9</v>
-      </c>
-      <c r="K34">
-        <v>252</v>
-      </c>
-      <c r="L34">
-        <v>626</v>
-      </c>
-      <c r="M34">
-        <v>118.2</v>
-      </c>
-      <c r="N34">
-        <v>111.4</v>
-      </c>
-      <c r="O34">
-        <v>201.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>2.8</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>7.6</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>-0.2</v>
-      </c>
-      <c r="J35">
-        <v>-13.7</v>
-      </c>
-      <c r="K35">
-        <v>14.3</v>
-      </c>
-      <c r="L35">
-        <v>13.3</v>
-      </c>
-      <c r="M35">
-        <v>5.2</v>
-      </c>
-      <c r="N35">
-        <v>0.7</v>
-      </c>
-      <c r="O35">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36">
-        <v>107.2</v>
-      </c>
-      <c r="C36">
-        <v>85.2</v>
-      </c>
-      <c r="D36">
-        <v>128.1</v>
-      </c>
-      <c r="E36">
-        <v>36.6</v>
-      </c>
-      <c r="F36">
-        <v>31.9</v>
-      </c>
-      <c r="G36">
-        <v>20</v>
-      </c>
-      <c r="H36">
-        <v>15.2</v>
-      </c>
-      <c r="I36">
-        <v>139.30000000000001</v>
-      </c>
-      <c r="J36">
-        <v>83</v>
-      </c>
-      <c r="K36">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="L36">
-        <v>123.8</v>
-      </c>
-      <c r="M36">
-        <v>53.3</v>
-      </c>
-      <c r="N36">
-        <v>37.1</v>
-      </c>
-      <c r="O36">
-        <v>71.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C37">
-        <v>8.9</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2.9</v>
-      </c>
-      <c r="F37">
-        <v>1.2</v>
-      </c>
-      <c r="G37">
-        <v>-2.4</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>2.4</v>
-      </c>
-      <c r="J37">
-        <v>2.5</v>
-      </c>
-      <c r="K37">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>-4.2</v>
-      </c>
-      <c r="N37">
-        <v>8</v>
-      </c>
-      <c r="O37">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>181.7</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>-0.1</v>
-      </c>
-      <c r="J38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K38">
-        <v>60</v>
-      </c>
-      <c r="L38">
-        <v>375.4</v>
-      </c>
-      <c r="M38">
-        <v>27.3</v>
-      </c>
-      <c r="N38">
-        <v>6.2</v>
-      </c>
-      <c r="O38">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>133.5</v>
-      </c>
-      <c r="C39">
-        <v>116.1</v>
-      </c>
-      <c r="D39">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E39">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F39">
-        <v>74.2</v>
-      </c>
-      <c r="G39">
-        <v>35</v>
-      </c>
-      <c r="H39">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I39">
-        <v>85.3</v>
-      </c>
-      <c r="J39">
-        <v>49</v>
-      </c>
-      <c r="K39">
-        <v>97.1</v>
-      </c>
-      <c r="L39">
-        <v>94.5</v>
-      </c>
-      <c r="M39">
-        <v>36.6</v>
-      </c>
-      <c r="N39">
-        <v>59.5</v>
-      </c>
-      <c r="O39">
-        <v>71.400000000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41">
-        <v>154.4</v>
-      </c>
-      <c r="C41">
-        <v>347.8</v>
-      </c>
-      <c r="D41">
-        <v>116.3</v>
-      </c>
-      <c r="E41">
-        <v>89.9</v>
-      </c>
-      <c r="F41">
-        <v>96.4</v>
-      </c>
-      <c r="G41">
-        <v>44.6</v>
-      </c>
-      <c r="H41">
-        <v>51.5</v>
-      </c>
-      <c r="I41">
-        <v>111.9</v>
-      </c>
-      <c r="J41">
-        <v>103.9</v>
-      </c>
-      <c r="K41">
-        <v>212</v>
-      </c>
-      <c r="L41">
-        <v>571.70000000000005</v>
-      </c>
-      <c r="M41">
-        <v>80</v>
-      </c>
-      <c r="N41">
-        <v>82.8</v>
-      </c>
-      <c r="O41">
-        <v>158.69999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>13.9</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>45</v>
-      </c>
-      <c r="F42">
-        <v>0.1</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>6</v>
-      </c>
-      <c r="I42">
-        <v>-0.2</v>
-      </c>
-      <c r="J42">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="K42">
-        <v>24.1</v>
-      </c>
-      <c r="L42">
-        <v>14.9</v>
-      </c>
-      <c r="M42">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N42">
-        <v>3.3</v>
-      </c>
-      <c r="O42">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>17.8</v>
-      </c>
-      <c r="D43">
-        <v>27</v>
-      </c>
-      <c r="E43">
-        <v>-0.4</v>
-      </c>
-      <c r="F43">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G43">
-        <v>4.7</v>
-      </c>
-      <c r="H43">
-        <v>3.4</v>
-      </c>
-      <c r="I43">
-        <v>14.4</v>
-      </c>
-      <c r="J43">
-        <v>54.3</v>
-      </c>
-      <c r="K43">
-        <v>16.2</v>
-      </c>
-      <c r="L43">
-        <v>70.7</v>
-      </c>
-      <c r="M43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N43">
-        <v>13.8</v>
-      </c>
-      <c r="O43">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44">
-        <v>23.3</v>
-      </c>
-      <c r="C44">
-        <v>18.5</v>
-      </c>
-      <c r="D44">
-        <v>15.7</v>
-      </c>
-      <c r="E44">
-        <v>7.6</v>
-      </c>
-      <c r="F44">
-        <v>1.4</v>
-      </c>
-      <c r="G44">
-        <v>-0.2</v>
-      </c>
-      <c r="H44">
-        <v>5.9</v>
-      </c>
-      <c r="I44">
-        <v>12.5</v>
-      </c>
-      <c r="J44">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K44">
-        <v>14.6</v>
-      </c>
-      <c r="L44">
-        <v>20.7</v>
-      </c>
-      <c r="M44">
-        <v>5.7</v>
-      </c>
-      <c r="N44">
-        <v>6.1</v>
-      </c>
-      <c r="O44">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>181.7</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>-0.1</v>
-      </c>
-      <c r="J45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K45">
-        <v>60</v>
-      </c>
-      <c r="L45">
-        <v>375.3</v>
-      </c>
-      <c r="M45">
-        <v>27.3</v>
-      </c>
-      <c r="N45">
-        <v>6.2</v>
-      </c>
-      <c r="O45">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <v>130.1</v>
-      </c>
-      <c r="C46">
-        <v>116.1</v>
-      </c>
-      <c r="D46">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E46">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="F46">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G46">
-        <v>35.1</v>
-      </c>
-      <c r="H46">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I46">
-        <v>85.3</v>
-      </c>
-      <c r="J46">
-        <v>49</v>
-      </c>
-      <c r="K46">
-        <v>97.1</v>
-      </c>
-      <c r="L46">
-        <v>90.2</v>
-      </c>
-      <c r="M46">
-        <v>36.6</v>
-      </c>
-      <c r="N46">
-        <v>53.3</v>
-      </c>
-      <c r="O46">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>154.4</v>
-      </c>
-      <c r="C48">
-        <v>330.7</v>
-      </c>
-      <c r="D48">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="E48">
-        <v>71.5</v>
-      </c>
-      <c r="F48">
-        <v>51.2</v>
-      </c>
-      <c r="G48">
-        <v>23.7</v>
-      </c>
-      <c r="H48">
-        <v>47.7</v>
-      </c>
-      <c r="I48">
-        <v>111.9</v>
-      </c>
-      <c r="J48">
-        <v>94.3</v>
-      </c>
-      <c r="K48">
-        <v>201.9</v>
-      </c>
-      <c r="L48">
-        <v>571.70000000000005</v>
-      </c>
-      <c r="M48">
-        <v>62.8</v>
-      </c>
-      <c r="N48">
-        <v>79.5</v>
-      </c>
-      <c r="O48">
-        <v>144.80000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>11.1</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>41.3</v>
-      </c>
-      <c r="F49">
-        <v>0.1</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>6</v>
-      </c>
-      <c r="I49">
-        <v>-0.2</v>
-      </c>
-      <c r="J49">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="K49">
-        <v>24.1</v>
-      </c>
-      <c r="L49">
-        <v>14.9</v>
-      </c>
-      <c r="M49">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N49">
-        <v>2.6</v>
-      </c>
-      <c r="O49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>17.8</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>-0.4</v>
-      </c>
-      <c r="F50">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G50">
-        <v>4.3</v>
-      </c>
-      <c r="H50">
-        <v>3.4</v>
-      </c>
-      <c r="I50">
-        <v>14.4</v>
-      </c>
-      <c r="J50">
-        <v>54.3</v>
-      </c>
-      <c r="K50">
-        <v>16.2</v>
-      </c>
-      <c r="L50">
-        <v>70.7</v>
-      </c>
-      <c r="M50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N50">
-        <v>13.8</v>
-      </c>
-      <c r="O50">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51">
-        <v>23.3</v>
-      </c>
-      <c r="C51">
-        <v>18.5</v>
-      </c>
-      <c r="D51">
-        <v>15.7</v>
-      </c>
-      <c r="E51">
-        <v>7.5</v>
-      </c>
-      <c r="F51">
-        <v>2.6</v>
-      </c>
-      <c r="G51">
-        <v>0.5</v>
-      </c>
-      <c r="H51">
-        <v>5.9</v>
-      </c>
-      <c r="I51">
-        <v>12.5</v>
-      </c>
-      <c r="J51">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K51">
-        <v>14.7</v>
-      </c>
-      <c r="L51">
-        <v>20.7</v>
-      </c>
-      <c r="M51">
-        <v>5.7</v>
-      </c>
-      <c r="N51">
-        <v>6.1</v>
-      </c>
-      <c r="O51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>181.7</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>-0.1</v>
-      </c>
-      <c r="J52">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K52">
-        <v>60</v>
-      </c>
-      <c r="L52">
-        <v>375.3</v>
-      </c>
-      <c r="M52">
-        <v>27.3</v>
-      </c>
-      <c r="N52">
-        <v>6.2</v>
-      </c>
-      <c r="O52">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53">
-        <v>130.1</v>
-      </c>
-      <c r="C53">
-        <v>101.7</v>
-      </c>
-      <c r="D53">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="E53">
-        <v>23.1</v>
-      </c>
-      <c r="F53">
-        <v>28.1</v>
-      </c>
-      <c r="G53">
-        <v>13.8</v>
-      </c>
-      <c r="H53">
-        <v>32.5</v>
-      </c>
-      <c r="I53">
-        <v>85.3</v>
-      </c>
-      <c r="J53">
-        <v>39.4</v>
-      </c>
-      <c r="K53">
-        <v>87</v>
-      </c>
-      <c r="L53">
-        <v>90.2</v>
-      </c>
-      <c r="M53">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="N53">
-        <v>50.7</v>
-      </c>
-      <c r="O53">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55">
-        <v>101.2</v>
-      </c>
-      <c r="C55">
-        <v>295.8</v>
-      </c>
-      <c r="D55">
-        <v>65.2</v>
-      </c>
-      <c r="E55">
-        <v>57.6</v>
-      </c>
-      <c r="F55">
-        <v>45.7</v>
-      </c>
-      <c r="G55">
-        <v>19.5</v>
-      </c>
-      <c r="H55">
-        <v>44.9</v>
-      </c>
-      <c r="I55">
-        <v>75.7</v>
-      </c>
-      <c r="J55">
-        <v>84.6</v>
-      </c>
-      <c r="K55">
-        <v>163</v>
-      </c>
-      <c r="L55">
-        <v>552</v>
-      </c>
-      <c r="M55">
-        <v>61.1</v>
-      </c>
-      <c r="N55">
-        <v>70.5</v>
-      </c>
-      <c r="O55">
-        <v>125.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>11.1</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>37.4</v>
-      </c>
-      <c r="F56">
-        <v>0.1</v>
-      </c>
-      <c r="G56">
-        <v>2.9</v>
-      </c>
-      <c r="H56">
-        <v>10.1</v>
-      </c>
-      <c r="I56">
-        <v>-0.2</v>
-      </c>
-      <c r="J56">
-        <v>-13.7</v>
-      </c>
-      <c r="K56">
-        <v>20.7</v>
-      </c>
-      <c r="L56">
-        <v>14.9</v>
-      </c>
-      <c r="M56">
-        <v>8</v>
-      </c>
-      <c r="N56">
-        <v>1.7</v>
-      </c>
-      <c r="O56">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>17.8</v>
-      </c>
-      <c r="D57">
-        <v>27</v>
-      </c>
-      <c r="E57">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F57">
-        <v>20.3</v>
-      </c>
-      <c r="G57">
-        <v>4.3</v>
-      </c>
-      <c r="H57">
-        <v>2.4</v>
-      </c>
-      <c r="I57">
-        <v>4.5</v>
-      </c>
-      <c r="J57">
-        <v>54.3</v>
-      </c>
-      <c r="K57">
-        <v>14.7</v>
-      </c>
-      <c r="L57">
-        <v>70.3</v>
-      </c>
-      <c r="M57">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N57">
-        <v>13.5</v>
-      </c>
-      <c r="O57">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>9.9</v>
-      </c>
-      <c r="D58">
-        <v>11.8</v>
-      </c>
-      <c r="E58">
-        <v>5.6</v>
-      </c>
-      <c r="F58">
-        <v>1.5</v>
-      </c>
-      <c r="G58">
-        <v>0.1</v>
-      </c>
-      <c r="H58">
-        <v>3.9</v>
-      </c>
-      <c r="I58">
-        <v>6.8</v>
-      </c>
-      <c r="J58">
-        <v>7.4</v>
-      </c>
-      <c r="K58">
-        <v>10.6</v>
-      </c>
-      <c r="L58">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="M58">
-        <v>5.2</v>
-      </c>
-      <c r="N58">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O58">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>181.7</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>-0.1</v>
-      </c>
-      <c r="J59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K59">
-        <v>60</v>
-      </c>
-      <c r="L59">
-        <v>375.2</v>
-      </c>
-      <c r="M59">
-        <v>27.3</v>
-      </c>
-      <c r="N59">
-        <v>6.2</v>
-      </c>
-      <c r="O59">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60">
-        <v>90.2</v>
-      </c>
-      <c r="C60">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="D60">
-        <v>26.4</v>
-      </c>
-      <c r="E60">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F60">
-        <v>23.8</v>
-      </c>
-      <c r="G60">
-        <v>12.2</v>
-      </c>
-      <c r="H60">
-        <v>28.6</v>
-      </c>
-      <c r="I60">
-        <v>64.7</v>
-      </c>
-      <c r="J60">
-        <v>35.5</v>
-      </c>
-      <c r="K60">
-        <v>57</v>
-      </c>
-      <c r="L60">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="M60">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="N60">
-        <v>44.7</v>
-      </c>
-      <c r="O60">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62">
-        <v>101.2</v>
-      </c>
-      <c r="C62">
-        <v>295.8</v>
-      </c>
-      <c r="D62">
-        <v>65.2</v>
-      </c>
-      <c r="E62">
-        <v>57.6</v>
-      </c>
-      <c r="F62">
-        <v>45.7</v>
-      </c>
-      <c r="G62">
-        <v>19.5</v>
-      </c>
-      <c r="H62">
-        <v>17.7</v>
-      </c>
-      <c r="I62">
-        <v>75.7</v>
-      </c>
-      <c r="J62">
-        <v>84.6</v>
-      </c>
-      <c r="K62">
-        <v>126.4</v>
-      </c>
-      <c r="L62">
-        <v>552</v>
-      </c>
-      <c r="M62">
-        <v>61.1</v>
-      </c>
-      <c r="N62">
-        <v>70.5</v>
-      </c>
-      <c r="O62">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>11.1</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>37.4</v>
-      </c>
-      <c r="F63">
-        <v>0.1</v>
-      </c>
-      <c r="G63">
-        <v>2.9</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
-      </c>
-      <c r="I63">
-        <v>-0.2</v>
-      </c>
-      <c r="J63">
-        <v>-13.7</v>
-      </c>
-      <c r="K63">
-        <v>6.1</v>
-      </c>
-      <c r="L63">
-        <v>14.9</v>
-      </c>
-      <c r="M63">
-        <v>8</v>
-      </c>
-      <c r="N63">
-        <v>1.7</v>
-      </c>
-      <c r="O63">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>17.8</v>
-      </c>
-      <c r="D64">
-        <v>27</v>
-      </c>
-      <c r="E64">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F64">
-        <v>20.3</v>
-      </c>
-      <c r="G64">
-        <v>4.3</v>
-      </c>
-      <c r="H64">
-        <v>2.4</v>
-      </c>
-      <c r="I64">
-        <v>4.5</v>
-      </c>
-      <c r="J64">
-        <v>54.3</v>
-      </c>
-      <c r="K64">
-        <v>14.7</v>
-      </c>
-      <c r="L64">
-        <v>70.3</v>
-      </c>
-      <c r="M64">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N64">
-        <v>13.5</v>
-      </c>
-      <c r="O64">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-      <c r="C65">
-        <v>9.9</v>
-      </c>
-      <c r="D65">
-        <v>11.8</v>
-      </c>
-      <c r="E65">
-        <v>5.6</v>
-      </c>
-      <c r="F65">
-        <v>1.5</v>
-      </c>
-      <c r="G65">
-        <v>0.1</v>
-      </c>
-      <c r="H65">
-        <v>2.9</v>
-      </c>
-      <c r="I65">
-        <v>6.8</v>
-      </c>
-      <c r="J65">
-        <v>7.4</v>
-      </c>
-      <c r="K65">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L65">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="M65">
-        <v>5.2</v>
-      </c>
-      <c r="N65">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>181.7</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>-0.1</v>
-      </c>
-      <c r="J66">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K66">
-        <v>60</v>
-      </c>
-      <c r="L66">
-        <v>375.2</v>
-      </c>
-      <c r="M66">
-        <v>27.3</v>
-      </c>
-      <c r="N66">
-        <v>6.2</v>
-      </c>
-      <c r="O66">
-        <v>50.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67">
-        <v>90.2</v>
-      </c>
-      <c r="C67">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="D67">
-        <v>26.4</v>
-      </c>
-      <c r="E67">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F67">
-        <v>23.8</v>
-      </c>
-      <c r="G67">
-        <v>12.2</v>
-      </c>
-      <c r="H67">
-        <v>10.4</v>
-      </c>
-      <c r="I67">
-        <v>64.7</v>
-      </c>
-      <c r="J67">
-        <v>35.5</v>
-      </c>
-      <c r="K67">
-        <v>35.9</v>
-      </c>
-      <c r="L67">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="M67">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="N67">
-        <v>44.7</v>
-      </c>
-      <c r="O67">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69">
-        <v>101.2</v>
-      </c>
-      <c r="C69">
-        <v>88.5</v>
-      </c>
-      <c r="D69">
-        <v>65.2</v>
-      </c>
-      <c r="E69">
-        <v>57.6</v>
-      </c>
-      <c r="F69">
-        <v>45.7</v>
-      </c>
-      <c r="G69">
-        <v>19.5</v>
-      </c>
-      <c r="H69">
-        <v>17.7</v>
-      </c>
-      <c r="I69">
-        <v>75.7</v>
-      </c>
-      <c r="J69">
-        <v>84.6</v>
-      </c>
-      <c r="K69">
-        <v>58.9</v>
-      </c>
-      <c r="L69">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="M69">
-        <v>30.5</v>
-      </c>
-      <c r="N69">
-        <v>70.2</v>
-      </c>
-      <c r="O69">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>-2.8</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>37.4</v>
-      </c>
-      <c r="F70">
-        <v>0.1</v>
-      </c>
-      <c r="G70">
-        <v>2.9</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>-0.2</v>
-      </c>
-      <c r="J70">
-        <v>-13.7</v>
-      </c>
-      <c r="K70">
-        <v>2.5</v>
-      </c>
-      <c r="L70">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="M70">
-        <v>5.6</v>
-      </c>
-      <c r="N70">
-        <v>1.7</v>
-      </c>
-      <c r="O70">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>29.3</v>
-      </c>
-      <c r="D71">
-        <v>27</v>
-      </c>
-      <c r="E71">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F71">
-        <v>20.3</v>
-      </c>
-      <c r="G71">
-        <v>4.3</v>
-      </c>
-      <c r="H71">
-        <v>2.4</v>
-      </c>
-      <c r="I71">
-        <v>4.5</v>
-      </c>
-      <c r="J71">
-        <v>54.3</v>
-      </c>
-      <c r="K71">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="L71">
-        <v>72</v>
-      </c>
-      <c r="M71">
-        <v>2.7</v>
-      </c>
-      <c r="N71">
-        <v>13.5</v>
-      </c>
-      <c r="O71">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>9.4</v>
-      </c>
-      <c r="D72">
-        <v>11.8</v>
-      </c>
-      <c r="E72">
-        <v>5.6</v>
-      </c>
-      <c r="F72">
-        <v>1.5</v>
-      </c>
-      <c r="G72">
-        <v>0.1</v>
-      </c>
-      <c r="H72">
-        <v>2.9</v>
-      </c>
-      <c r="I72">
-        <v>6.8</v>
-      </c>
-      <c r="J72">
-        <v>7.4</v>
-      </c>
-      <c r="K72">
-        <v>9.6</v>
-      </c>
-      <c r="L72">
-        <v>14.9</v>
-      </c>
-      <c r="M72">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N72">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O72">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>-0.1</v>
-      </c>
-      <c r="J73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K73">
-        <v>0.8</v>
-      </c>
-      <c r="L73">
-        <v>13.2</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O73">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" t="s">
-        <v>20</v>
-      </c>
-      <c r="B74">
-        <v>90.2</v>
-      </c>
-      <c r="C74">
-        <v>52.5</v>
-      </c>
-      <c r="D74">
-        <v>26.4</v>
-      </c>
-      <c r="E74">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F74">
-        <v>23.8</v>
-      </c>
-      <c r="G74">
-        <v>12.2</v>
-      </c>
-      <c r="H74">
-        <v>10.4</v>
-      </c>
-      <c r="I74">
-        <v>64.7</v>
-      </c>
-      <c r="J74">
-        <v>35.5</v>
-      </c>
-      <c r="K74">
-        <v>28.8</v>
-      </c>
-      <c r="L74">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="M74">
-        <v>17</v>
-      </c>
-      <c r="N74">
-        <v>46.1</v>
-      </c>
-      <c r="O74">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76">
-        <v>247.5</v>
-      </c>
-      <c r="C76">
-        <v>153.9</v>
-      </c>
-      <c r="D76">
-        <v>65.2</v>
-      </c>
-      <c r="E76">
-        <v>68.2</v>
-      </c>
-      <c r="F76">
-        <v>60.3</v>
-      </c>
-      <c r="G76">
-        <v>22.2</v>
-      </c>
-      <c r="H76">
-        <v>30.3</v>
-      </c>
-      <c r="I76">
-        <v>128.4</v>
-      </c>
-      <c r="J76">
-        <v>118.4</v>
-      </c>
-      <c r="K76">
-        <v>76.7</v>
-      </c>
-      <c r="L76">
-        <v>266.10000000000002</v>
-      </c>
-      <c r="M76">
-        <v>33.9</v>
-      </c>
-      <c r="N76">
-        <v>88.2</v>
-      </c>
-      <c r="O76">
-        <v>104.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>-2.8</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>37.4</v>
-      </c>
-      <c r="F77">
-        <v>0.1</v>
-      </c>
-      <c r="G77">
-        <v>2.9</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="I77">
-        <v>-0.2</v>
-      </c>
-      <c r="J77">
-        <v>-13.7</v>
-      </c>
-      <c r="K77">
-        <v>2.5</v>
-      </c>
-      <c r="L77">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="M77">
-        <v>5.6</v>
-      </c>
-      <c r="N77">
-        <v>1.7</v>
-      </c>
-      <c r="O77">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>29.3</v>
-      </c>
-      <c r="D78">
-        <v>27</v>
-      </c>
-      <c r="E78">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="F78">
-        <v>20.3</v>
-      </c>
-      <c r="G78">
-        <v>4.3</v>
-      </c>
-      <c r="H78">
-        <v>2.4</v>
-      </c>
-      <c r="I78">
-        <v>4.5</v>
-      </c>
-      <c r="J78">
-        <v>54.3</v>
-      </c>
-      <c r="K78">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="L78">
-        <v>72</v>
-      </c>
-      <c r="M78">
-        <v>2.7</v>
-      </c>
-      <c r="N78">
-        <v>13.5</v>
-      </c>
-      <c r="O78">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79">
-        <v>10</v>
-      </c>
-      <c r="C79">
-        <v>9.4</v>
-      </c>
-      <c r="D79">
-        <v>11.8</v>
-      </c>
-      <c r="E79">
-        <v>5.6</v>
-      </c>
-      <c r="F79">
-        <v>1.5</v>
-      </c>
-      <c r="G79">
-        <v>0.1</v>
-      </c>
-      <c r="H79">
-        <v>2.9</v>
-      </c>
-      <c r="I79">
-        <v>6.8</v>
-      </c>
-      <c r="J79">
-        <v>7.4</v>
-      </c>
-      <c r="K79">
-        <v>9.6</v>
-      </c>
-      <c r="L79">
-        <v>14.9</v>
-      </c>
-      <c r="M79">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="N79">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O79">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>-0.1</v>
-      </c>
-      <c r="J80">
-        <v>1.3</v>
-      </c>
-      <c r="K80">
-        <v>0.9</v>
-      </c>
-      <c r="L80">
-        <v>14.7</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O80">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81">
-        <v>236.5</v>
-      </c>
-      <c r="C81">
-        <v>117.9</v>
-      </c>
-      <c r="D81">
-        <v>26.4</v>
-      </c>
-      <c r="E81">
-        <v>27.5</v>
-      </c>
-      <c r="F81">
-        <v>38.4</v>
-      </c>
-      <c r="G81">
-        <v>14.8</v>
-      </c>
-      <c r="H81">
-        <v>23.1</v>
-      </c>
-      <c r="I81">
-        <v>117.4</v>
-      </c>
-      <c r="J81">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="K81">
-        <v>46.6</v>
-      </c>
-      <c r="L81">
-        <v>144.1</v>
-      </c>
-      <c r="M81">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="N81">
-        <v>63.7</v>
-      </c>
-      <c r="O81">
-        <v>72.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/maingraphs-performance-table3.xlsx
+++ b/data/maingraphs-performance-table3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33560" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -447,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -526,6 +530,8 @@
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -604,6 +610,8 @@
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3398,7 +3406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N113" sqref="A103:N113"/>
     </sheetView>
   </sheetViews>
